--- a/data/stock-forecaster-vix-sp500.xlsx
+++ b/data/stock-forecaster-vix-sp500.xlsx
@@ -19,10 +19,10 @@
     <t>date</t>
   </si>
   <si>
-    <t>^VIX_close</t>
+    <t>VIX_close</t>
   </si>
   <si>
-    <t>^GSPC_close</t>
+    <t>SP500_close</t>
   </si>
   <si>
     <t>future_result</t>

--- a/data/stock-forecaster-vix-sp500.xlsx
+++ b/data/stock-forecaster-vix-sp500.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5646"/>
+  <dimension ref="A1:E5993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -96378,6 +96378,5905 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5647" spans="1:5">
+      <c r="A5647" s="2">
+        <v>44721</v>
+      </c>
+      <c r="B5647">
+        <v>26.09000015258789</v>
+      </c>
+      <c r="C5647">
+        <v>4017.820068359375</v>
+      </c>
+      <c r="D5647">
+        <v>0.07992147531708561</v>
+      </c>
+      <c r="E5647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5648" spans="1:5">
+      <c r="A5648" s="2">
+        <v>44722</v>
+      </c>
+      <c r="B5648">
+        <v>27.75</v>
+      </c>
+      <c r="C5648">
+        <v>3900.860107421875</v>
+      </c>
+      <c r="D5648">
+        <v>0.1200119064286391</v>
+      </c>
+      <c r="E5648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5649" spans="1:5">
+      <c r="A5649" s="2">
+        <v>44725</v>
+      </c>
+      <c r="B5649">
+        <v>34.02000045776367</v>
+      </c>
+      <c r="C5649">
+        <v>3749.6298828125</v>
+      </c>
+      <c r="D5649">
+        <v>0.1661390538284898</v>
+      </c>
+      <c r="E5649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5650" spans="1:5">
+      <c r="A5650" s="2">
+        <v>44726</v>
+      </c>
+      <c r="B5650">
+        <v>32.68999862670898</v>
+      </c>
+      <c r="C5650">
+        <v>3735.47998046875</v>
+      </c>
+      <c r="D5650">
+        <v>0.1848115548445851</v>
+      </c>
+      <c r="E5650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5651" spans="1:5">
+      <c r="A5651" s="2">
+        <v>44727</v>
+      </c>
+      <c r="B5651">
+        <v>29.6200008392334</v>
+      </c>
+      <c r="C5651">
+        <v>3789.989990234375</v>
+      </c>
+      <c r="D5651">
+        <v>0.1634832427294376</v>
+      </c>
+      <c r="E5651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5652" spans="1:5">
+      <c r="A5652" s="2">
+        <v>44728</v>
+      </c>
+      <c r="B5652">
+        <v>32.95000076293945</v>
+      </c>
+      <c r="C5652">
+        <v>3666.77001953125</v>
+      </c>
+      <c r="D5652">
+        <v>0.1968871616056632</v>
+      </c>
+      <c r="E5652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5653" spans="1:5">
+      <c r="A5653" s="2">
+        <v>44729</v>
+      </c>
+      <c r="B5653">
+        <v>31.1299991607666</v>
+      </c>
+      <c r="C5653">
+        <v>3674.840087890625</v>
+      </c>
+      <c r="D5653">
+        <v>0.187994534998168</v>
+      </c>
+      <c r="E5653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5654" spans="1:5">
+      <c r="A5654" s="2">
+        <v>44733</v>
+      </c>
+      <c r="B5654">
+        <v>30.19000053405762</v>
+      </c>
+      <c r="C5654">
+        <v>3764.7900390625</v>
+      </c>
+      <c r="D5654">
+        <v>0.1639135492958112</v>
+      </c>
+      <c r="E5654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5655" spans="1:5">
+      <c r="A5655" s="2">
+        <v>44734</v>
+      </c>
+      <c r="B5655">
+        <v>28.95000076293945</v>
+      </c>
+      <c r="C5655">
+        <v>3759.889892578125</v>
+      </c>
+      <c r="D5655">
+        <v>0.1565046324118248</v>
+      </c>
+      <c r="E5655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5656" spans="1:5">
+      <c r="A5656" s="2">
+        <v>44735</v>
+      </c>
+      <c r="B5656">
+        <v>29.04999923706055</v>
+      </c>
+      <c r="C5656">
+        <v>3795.72998046875</v>
+      </c>
+      <c r="D5656">
+        <v>0.1404446171073967</v>
+      </c>
+      <c r="E5656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5657" spans="1:5">
+      <c r="A5657" s="2">
+        <v>44736</v>
+      </c>
+      <c r="B5657">
+        <v>27.22999954223633</v>
+      </c>
+      <c r="C5657">
+        <v>3911.739990234375</v>
+      </c>
+      <c r="D5657">
+        <v>0.1192998939552892</v>
+      </c>
+      <c r="E5657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5658" spans="1:5">
+      <c r="A5658" s="2">
+        <v>44739</v>
+      </c>
+      <c r="B5658">
+        <v>26.95000076293945</v>
+      </c>
+      <c r="C5658">
+        <v>3900.110107421875</v>
+      </c>
+      <c r="D5658">
+        <v>0.1222400759794254</v>
+      </c>
+      <c r="E5658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5659" spans="1:5">
+      <c r="A5659" s="2">
+        <v>44740</v>
+      </c>
+      <c r="B5659">
+        <v>28.36000061035156</v>
+      </c>
+      <c r="C5659">
+        <v>3821.550048828125</v>
+      </c>
+      <c r="D5659">
+        <v>0.1504336945042535</v>
+      </c>
+      <c r="E5659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5660" spans="1:5">
+      <c r="A5660" s="2">
+        <v>44741</v>
+      </c>
+      <c r="B5660">
+        <v>28.15999984741211</v>
+      </c>
+      <c r="C5660">
+        <v>3818.830078125</v>
+      </c>
+      <c r="D5660">
+        <v>0.1653778229895957</v>
+      </c>
+      <c r="E5660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5661" spans="1:5">
+      <c r="A5661" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B5661">
+        <v>28.70999908447266</v>
+      </c>
+      <c r="C5661">
+        <v>3785.3798828125</v>
+      </c>
+      <c r="D5661">
+        <v>0.1770522329821071</v>
+      </c>
+      <c r="E5661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5662" spans="1:5">
+      <c r="A5662" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B5662">
+        <v>26.70000076293945</v>
+      </c>
+      <c r="C5662">
+        <v>3825.330078125</v>
+      </c>
+      <c r="D5662">
+        <v>0.1624669592952814</v>
+      </c>
+      <c r="E5662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5663" spans="1:5">
+      <c r="A5663" s="2">
+        <v>44747</v>
+      </c>
+      <c r="B5663">
+        <v>27.54000091552734</v>
+      </c>
+      <c r="C5663">
+        <v>3831.389892578125</v>
+      </c>
+      <c r="D5663">
+        <v>0.1514332833355838</v>
+      </c>
+      <c r="E5663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5664" spans="1:5">
+      <c r="A5664" s="2">
+        <v>44748</v>
+      </c>
+      <c r="B5664">
+        <v>26.72999954223633</v>
+      </c>
+      <c r="C5664">
+        <v>3845.080078125</v>
+      </c>
+      <c r="D5664">
+        <v>0.1440464453103372</v>
+      </c>
+      <c r="E5664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5665" spans="1:5">
+      <c r="A5665" s="2">
+        <v>44749</v>
+      </c>
+      <c r="B5665">
+        <v>26.07999992370605</v>
+      </c>
+      <c r="C5665">
+        <v>3902.6201171875</v>
+      </c>
+      <c r="D5665">
+        <v>0.1298895748874642</v>
+      </c>
+      <c r="E5665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5666" spans="1:5">
+      <c r="A5666" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B5666">
+        <v>24.63999938964844</v>
+      </c>
+      <c r="C5666">
+        <v>3899.3798828125</v>
+      </c>
+      <c r="D5666">
+        <v>0.1384527537807118</v>
+      </c>
+      <c r="E5666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5667" spans="1:5">
+      <c r="A5667" s="2">
+        <v>44753</v>
+      </c>
+      <c r="B5667">
+        <v>26.17000007629395</v>
+      </c>
+      <c r="C5667">
+        <v>3854.429931640625</v>
+      </c>
+      <c r="D5667">
+        <v>0.1602650030134133</v>
+      </c>
+      <c r="E5667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5668" spans="1:5">
+      <c r="A5668" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B5668">
+        <v>27.29000091552734</v>
+      </c>
+      <c r="C5668">
+        <v>3818.800048828125</v>
+      </c>
+      <c r="D5668">
+        <v>0.1810097364082981</v>
+      </c>
+      <c r="E5668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5669" spans="1:5">
+      <c r="A5669" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B5669">
+        <v>26.81999969482422</v>
+      </c>
+      <c r="C5669">
+        <v>3801.780029296875</v>
+      </c>
+      <c r="D5669">
+        <v>0.1850816951943063</v>
+      </c>
+      <c r="E5669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5670" spans="1:5">
+      <c r="A5670" s="2">
+        <v>44756</v>
+      </c>
+      <c r="B5670">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="C5670">
+        <v>3790.3798828125</v>
+      </c>
+      <c r="D5670">
+        <v>0.1932286944564892</v>
+      </c>
+      <c r="E5670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5671" spans="1:5">
+      <c r="A5671" s="2">
+        <v>44757</v>
+      </c>
+      <c r="B5671">
+        <v>24.22999954223633</v>
+      </c>
+      <c r="C5671">
+        <v>3863.159912109375</v>
+      </c>
+      <c r="D5671">
+        <v>0.1790813955670878</v>
+      </c>
+      <c r="E5671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5672" spans="1:5">
+      <c r="A5672" s="2">
+        <v>44760</v>
+      </c>
+      <c r="B5672">
+        <v>25.29999923706055</v>
+      </c>
+      <c r="C5672">
+        <v>3830.85009765625</v>
+      </c>
+      <c r="D5672">
+        <v>0.1918295152392155</v>
+      </c>
+      <c r="E5672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5673" spans="1:5">
+      <c r="A5673" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B5673">
+        <v>24.5</v>
+      </c>
+      <c r="C5673">
+        <v>3936.68994140625</v>
+      </c>
+      <c r="D5673">
+        <v>0.151950035355736</v>
+      </c>
+      <c r="E5673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5674" spans="1:5">
+      <c r="A5674" s="2">
+        <v>44762</v>
+      </c>
+      <c r="B5674">
+        <v>23.8799991607666</v>
+      </c>
+      <c r="C5674">
+        <v>3959.89990234375</v>
+      </c>
+      <c r="D5674">
+        <v>0.1455693213520554</v>
+      </c>
+      <c r="E5674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5675" spans="1:5">
+      <c r="A5675" s="2">
+        <v>44763</v>
+      </c>
+      <c r="B5675">
+        <v>23.11000061035156</v>
+      </c>
+      <c r="C5675">
+        <v>3998.949951171875</v>
+      </c>
+      <c r="D5675">
+        <v>0.138959024827013</v>
+      </c>
+      <c r="E5675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5676" spans="1:5">
+      <c r="A5676" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B5676">
+        <v>23.03000068664551</v>
+      </c>
+      <c r="C5676">
+        <v>3961.6298828125</v>
+      </c>
+      <c r="D5676">
+        <v>0.1529244518154987</v>
+      </c>
+      <c r="E5676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5677" spans="1:5">
+      <c r="A5677" s="2">
+        <v>44767</v>
+      </c>
+      <c r="B5677">
+        <v>23.36000061035156</v>
+      </c>
+      <c r="C5677">
+        <v>3966.840087890625</v>
+      </c>
+      <c r="D5677">
+        <v>0.1512311811965121</v>
+      </c>
+      <c r="E5677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5678" spans="1:5">
+      <c r="A5678" s="2">
+        <v>44768</v>
+      </c>
+      <c r="B5678">
+        <v>24.69000053405762</v>
+      </c>
+      <c r="C5678">
+        <v>3921.050048828125</v>
+      </c>
+      <c r="D5678">
+        <v>0.1571926141585683</v>
+      </c>
+      <c r="E5678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5679" spans="1:5">
+      <c r="A5679" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B5679">
+        <v>23.23999977111816</v>
+      </c>
+      <c r="C5679">
+        <v>4023.610107421875</v>
+      </c>
+      <c r="D5679">
+        <v>0.1388354880649234</v>
+      </c>
+      <c r="E5679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5680" spans="1:5">
+      <c r="A5680" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B5680">
+        <v>22.32999992370605</v>
+      </c>
+      <c r="C5680">
+        <v>4072.429931640625</v>
+      </c>
+      <c r="D5680">
+        <v>0.1268358297054321</v>
+      </c>
+      <c r="E5680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5681" spans="1:5">
+      <c r="A5681" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B5681">
+        <v>21.32999992370605</v>
+      </c>
+      <c r="C5681">
+        <v>4130.2900390625</v>
+      </c>
+      <c r="D5681">
+        <v>0.1080892472886925</v>
+      </c>
+      <c r="E5681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5682" spans="1:5">
+      <c r="A5682" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B5682">
+        <v>22.84000015258789</v>
+      </c>
+      <c r="C5682">
+        <v>4118.6298828125</v>
+      </c>
+      <c r="D5682">
+        <v>0.09584746994470865</v>
+      </c>
+      <c r="E5682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5683" spans="1:5">
+      <c r="A5683" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B5683">
+        <v>23.93000030517578</v>
+      </c>
+      <c r="C5683">
+        <v>4091.18994140625</v>
+      </c>
+      <c r="D5683">
+        <v>0.100386489308617</v>
+      </c>
+      <c r="E5683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5684" spans="1:5">
+      <c r="A5684" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B5684">
+        <v>21.95000076293945</v>
+      </c>
+      <c r="C5684">
+        <v>4155.169921875</v>
+      </c>
+      <c r="D5684">
+        <v>0.07770076058298984</v>
+      </c>
+      <c r="E5684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5685" spans="1:5">
+      <c r="A5685" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B5685">
+        <v>21.44000053405762</v>
+      </c>
+      <c r="C5685">
+        <v>4151.93994140625</v>
+      </c>
+      <c r="D5685">
+        <v>0.08827198976193945</v>
+      </c>
+      <c r="E5685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5686" spans="1:5">
+      <c r="A5686" s="2">
+        <v>44778</v>
+      </c>
+      <c r="B5686">
+        <v>21.14999961853027</v>
+      </c>
+      <c r="C5686">
+        <v>4145.18994140625</v>
+      </c>
+      <c r="D5686">
+        <v>0.08544601005330327</v>
+      </c>
+      <c r="E5686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5687" spans="1:5">
+      <c r="A5687" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B5687">
+        <v>21.29000091552734</v>
+      </c>
+      <c r="C5687">
+        <v>4140.06005859375</v>
+      </c>
+      <c r="D5687">
+        <v>0.07914134039278709</v>
+      </c>
+      <c r="E5687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5688" spans="1:5">
+      <c r="A5688" s="2">
+        <v>44782</v>
+      </c>
+      <c r="B5688">
+        <v>21.77000045776367</v>
+      </c>
+      <c r="C5688">
+        <v>4122.47021484375</v>
+      </c>
+      <c r="D5688">
+        <v>0.08401755385256986</v>
+      </c>
+      <c r="E5688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5689" spans="1:5">
+      <c r="A5689" s="2">
+        <v>44783</v>
+      </c>
+      <c r="B5689">
+        <v>19.73999977111816</v>
+      </c>
+      <c r="C5689">
+        <v>4210.240234375</v>
+      </c>
+      <c r="D5689">
+        <v>0.06028386889665868</v>
+      </c>
+      <c r="E5689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5690" spans="1:5">
+      <c r="A5690" s="2">
+        <v>44784</v>
+      </c>
+      <c r="B5690">
+        <v>20.20000076293945</v>
+      </c>
+      <c r="C5690">
+        <v>4207.27001953125</v>
+      </c>
+      <c r="D5690">
+        <v>0.0671338407093655</v>
+      </c>
+      <c r="E5690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5691" spans="1:5">
+      <c r="A5691" s="2">
+        <v>44785</v>
+      </c>
+      <c r="B5691">
+        <v>19.53000068664551</v>
+      </c>
+      <c r="C5691">
+        <v>4280.14990234375</v>
+      </c>
+      <c r="D5691">
+        <v>0.03684683119419258</v>
+      </c>
+      <c r="E5691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5692" spans="1:5">
+      <c r="A5692" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B5692">
+        <v>19.95000076293945</v>
+      </c>
+      <c r="C5692">
+        <v>4297.14013671875</v>
+      </c>
+      <c r="D5692">
+        <v>0.02494448353925434</v>
+      </c>
+      <c r="E5692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5693" spans="1:5">
+      <c r="A5693" s="2">
+        <v>44789</v>
+      </c>
+      <c r="B5693">
+        <v>19.69000053405762</v>
+      </c>
+      <c r="C5693">
+        <v>4305.2001953125</v>
+      </c>
+      <c r="D5693">
+        <v>0.01513510754730891</v>
+      </c>
+      <c r="E5693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5694" spans="1:5">
+      <c r="A5694" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B5694">
+        <v>19.89999961853027</v>
+      </c>
+      <c r="C5694">
+        <v>4274.0400390625</v>
+      </c>
+      <c r="D5694">
+        <v>0.02238395546149001</v>
+      </c>
+      <c r="E5694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5695" spans="1:5">
+      <c r="A5695" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B5695">
+        <v>19.55999946594238</v>
+      </c>
+      <c r="C5695">
+        <v>4283.740234375</v>
+      </c>
+      <c r="D5695">
+        <v>0.02708609271523179</v>
+      </c>
+      <c r="E5695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5696" spans="1:5">
+      <c r="A5696" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B5696">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="C5696">
+        <v>4228.47998046875</v>
+      </c>
+      <c r="D5696">
+        <v>0.03761867738607958</v>
+      </c>
+      <c r="E5696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5697" spans="1:5">
+      <c r="A5697" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B5697">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="C5697">
+        <v>4137.990234375</v>
+      </c>
+      <c r="D5697">
+        <v>0.07202035634939402</v>
+      </c>
+      <c r="E5697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5698" spans="1:5">
+      <c r="A5698" s="2">
+        <v>44796</v>
+      </c>
+      <c r="B5698">
+        <v>24.11000061035156</v>
+      </c>
+      <c r="C5698">
+        <v>4128.72998046875</v>
+      </c>
+      <c r="D5698">
+        <v>0.05996519009385334</v>
+      </c>
+      <c r="E5698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5699" spans="1:5">
+      <c r="A5699" s="2">
+        <v>44797</v>
+      </c>
+      <c r="B5699">
+        <v>22.81999969482422</v>
+      </c>
+      <c r="C5699">
+        <v>4140.77001953125</v>
+      </c>
+      <c r="D5699">
+        <v>0.06398325436007725</v>
+      </c>
+      <c r="E5699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5700" spans="1:5">
+      <c r="A5700" s="2">
+        <v>44798</v>
+      </c>
+      <c r="B5700">
+        <v>21.78000068664551</v>
+      </c>
+      <c r="C5700">
+        <v>4199.1201171875</v>
+      </c>
+      <c r="D5700">
+        <v>0.05577119369547982</v>
+      </c>
+      <c r="E5700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5701" spans="1:5">
+      <c r="A5701" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B5701">
+        <v>25.55999946594238</v>
+      </c>
+      <c r="C5701">
+        <v>4057.659912109375</v>
+      </c>
+      <c r="D5701">
+        <v>0.1084294840457456</v>
+      </c>
+      <c r="E5701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5702" spans="1:5">
+      <c r="A5702" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B5702">
+        <v>26.20999908447266</v>
+      </c>
+      <c r="C5702">
+        <v>4030.610107421875</v>
+      </c>
+      <c r="D5702">
+        <v>0.1201455851246737</v>
+      </c>
+      <c r="E5702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5703" spans="1:5">
+      <c r="A5703" s="2">
+        <v>44803</v>
+      </c>
+      <c r="B5703">
+        <v>26.20999908447266</v>
+      </c>
+      <c r="C5703">
+        <v>3986.159912109375</v>
+      </c>
+      <c r="D5703">
+        <v>0.1308277278481435</v>
+      </c>
+      <c r="E5703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5704" spans="1:5">
+      <c r="A5704" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B5704">
+        <v>25.8700008392334</v>
+      </c>
+      <c r="C5704">
+        <v>3955</v>
+      </c>
+      <c r="D5704">
+        <v>0.1417876155578382</v>
+      </c>
+      <c r="E5704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5705" spans="1:5">
+      <c r="A5705" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B5705">
+        <v>25.55999946594238</v>
+      </c>
+      <c r="C5705">
+        <v>3966.85009765625</v>
+      </c>
+      <c r="D5705">
+        <v>0.1336022202557844</v>
+      </c>
+      <c r="E5705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5706" spans="1:5">
+      <c r="A5706" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B5706">
+        <v>25.46999931335449</v>
+      </c>
+      <c r="C5706">
+        <v>3924.260009765625</v>
+      </c>
+      <c r="D5706">
+        <v>0.1379164401329893</v>
+      </c>
+      <c r="E5706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5707" spans="1:5">
+      <c r="A5707" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B5707">
+        <v>26.90999984741211</v>
+      </c>
+      <c r="C5707">
+        <v>3908.18994140625</v>
+      </c>
+      <c r="D5707">
+        <v>0.138926255748239</v>
+      </c>
+      <c r="E5707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5708" spans="1:5">
+      <c r="A5708" s="2">
+        <v>44811</v>
+      </c>
+      <c r="B5708">
+        <v>24.63999938964844</v>
+      </c>
+      <c r="C5708">
+        <v>3979.8701171875</v>
+      </c>
+      <c r="D5708">
+        <v>0.1200089709271782</v>
+      </c>
+      <c r="E5708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5709" spans="1:5">
+      <c r="A5709" s="2">
+        <v>44812</v>
+      </c>
+      <c r="B5709">
+        <v>23.61000061035156</v>
+      </c>
+      <c r="C5709">
+        <v>4006.179931640625</v>
+      </c>
+      <c r="D5709">
+        <v>0.1201344017266293</v>
+      </c>
+      <c r="E5709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5710" spans="1:5">
+      <c r="A5710" s="2">
+        <v>44813</v>
+      </c>
+      <c r="B5710">
+        <v>22.79000091552734</v>
+      </c>
+      <c r="C5710">
+        <v>4067.360107421875</v>
+      </c>
+      <c r="D5710">
+        <v>0.0970014418447834</v>
+      </c>
+      <c r="E5710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5711" spans="1:5">
+      <c r="A5711" s="2">
+        <v>44816</v>
+      </c>
+      <c r="B5711">
+        <v>23.8700008392334</v>
+      </c>
+      <c r="C5711">
+        <v>4110.41015625</v>
+      </c>
+      <c r="D5711">
+        <v>0.08685989270763543</v>
+      </c>
+      <c r="E5711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5712" spans="1:5">
+      <c r="A5712" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B5712">
+        <v>27.27000045776367</v>
+      </c>
+      <c r="C5712">
+        <v>3932.68994140625</v>
+      </c>
+      <c r="D5712">
+        <v>0.1455518143505912</v>
+      </c>
+      <c r="E5712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5713" spans="1:5">
+      <c r="A5713" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B5713">
+        <v>26.15999984741211</v>
+      </c>
+      <c r="C5713">
+        <v>3946.010009765625</v>
+      </c>
+      <c r="D5713">
+        <v>0.1278024671009587</v>
+      </c>
+      <c r="E5713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5714" spans="1:5">
+      <c r="A5714" s="2">
+        <v>44819</v>
+      </c>
+      <c r="B5714">
+        <v>26.27000045776367</v>
+      </c>
+      <c r="C5714">
+        <v>3901.35009765625</v>
+      </c>
+      <c r="D5714">
+        <v>0.1415355386412832</v>
+      </c>
+      <c r="E5714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5715" spans="1:5">
+      <c r="A5715" s="2">
+        <v>44820</v>
+      </c>
+      <c r="B5715">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="C5715">
+        <v>3873.330078125</v>
+      </c>
+      <c r="D5715">
+        <v>0.1473202917587973</v>
+      </c>
+      <c r="E5715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5716" spans="1:5">
+      <c r="A5716" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B5716">
+        <v>25.76000022888184</v>
+      </c>
+      <c r="C5716">
+        <v>3899.889892578125</v>
+      </c>
+      <c r="D5716">
+        <v>0.1288011499222891</v>
+      </c>
+      <c r="E5716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5717" spans="1:5">
+      <c r="A5717" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B5717">
+        <v>27.15999984741211</v>
+      </c>
+      <c r="C5717">
+        <v>3855.929931640625</v>
+      </c>
+      <c r="D5717">
+        <v>0.1229457165363135</v>
+      </c>
+      <c r="E5717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5718" spans="1:5">
+      <c r="A5718" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B5718">
+        <v>27.98999977111816</v>
+      </c>
+      <c r="C5718">
+        <v>3789.929931640625</v>
+      </c>
+      <c r="D5718">
+        <v>0.1398786089756643</v>
+      </c>
+      <c r="E5718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5719" spans="1:5">
+      <c r="A5719" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B5719">
+        <v>27.35000038146973</v>
+      </c>
+      <c r="C5719">
+        <v>3757.989990234375</v>
+      </c>
+      <c r="D5719">
+        <v>0.1541914567834536</v>
+      </c>
+      <c r="E5719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5720" spans="1:5">
+      <c r="A5720" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B5720">
+        <v>29.92000007629395</v>
+      </c>
+      <c r="C5720">
+        <v>3693.22998046875</v>
+      </c>
+      <c r="D5720">
+        <v>0.1571252826811093</v>
+      </c>
+      <c r="E5720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5721" spans="1:5">
+      <c r="A5721" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B5721">
+        <v>32.2599983215332</v>
+      </c>
+      <c r="C5721">
+        <v>3655.0400390625</v>
+      </c>
+      <c r="D5721">
+        <v>0.1694837046768415</v>
+      </c>
+      <c r="E5721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5722" spans="1:5">
+      <c r="A5722" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B5722">
+        <v>32.59999847412109</v>
+      </c>
+      <c r="C5722">
+        <v>3647.2900390625</v>
+      </c>
+      <c r="D5722">
+        <v>0.17887531544316</v>
+      </c>
+      <c r="E5722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5723" spans="1:5">
+      <c r="A5723" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B5723">
+        <v>30.18000030517578</v>
+      </c>
+      <c r="C5723">
+        <v>3719.0400390625</v>
+      </c>
+      <c r="D5723">
+        <v>0.1529990964465219</v>
+      </c>
+      <c r="E5723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5724" spans="1:5">
+      <c r="A5724" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B5724">
+        <v>31.84000015258789</v>
+      </c>
+      <c r="C5724">
+        <v>3640.469970703125</v>
+      </c>
+      <c r="D5724">
+        <v>0.177977066485865</v>
+      </c>
+      <c r="E5724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5725" spans="1:5">
+      <c r="A5725" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B5725">
+        <v>31.6200008392334</v>
+      </c>
+      <c r="C5725">
+        <v>3585.6201171875</v>
+      </c>
+      <c r="D5725">
+        <v>0.1795589206561038</v>
+      </c>
+      <c r="E5725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5726" spans="1:5">
+      <c r="A5726" s="2">
+        <v>44837</v>
+      </c>
+      <c r="B5726">
+        <v>30.10000038146973</v>
+      </c>
+      <c r="C5726">
+        <v>3678.429931640625</v>
+      </c>
+      <c r="D5726">
+        <v>0.1591222557550022</v>
+      </c>
+      <c r="E5726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5727" spans="1:5">
+      <c r="A5727" s="2">
+        <v>44838</v>
+      </c>
+      <c r="B5727">
+        <v>29.06999969482422</v>
+      </c>
+      <c r="C5727">
+        <v>3790.929931640625</v>
+      </c>
+      <c r="D5727">
+        <v>0.123257358535088</v>
+      </c>
+      <c r="E5727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5728" spans="1:5">
+      <c r="A5728" s="2">
+        <v>44839</v>
+      </c>
+      <c r="B5728">
+        <v>28.54999923706055</v>
+      </c>
+      <c r="C5728">
+        <v>3783.280029296875</v>
+      </c>
+      <c r="D5728">
+        <v>0.1388266178120411</v>
+      </c>
+      <c r="E5728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5729" spans="1:5">
+      <c r="A5729" s="2">
+        <v>44840</v>
+      </c>
+      <c r="B5729">
+        <v>30.52000045776367</v>
+      </c>
+      <c r="C5729">
+        <v>3744.52001953125</v>
+      </c>
+      <c r="D5729">
+        <v>0.1578680668377761</v>
+      </c>
+      <c r="E5729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5730" spans="1:5">
+      <c r="A5730" s="2">
+        <v>44841</v>
+      </c>
+      <c r="B5730">
+        <v>31.36000061035156</v>
+      </c>
+      <c r="C5730">
+        <v>3639.659912109375</v>
+      </c>
+      <c r="D5730">
+        <v>0.1974306225356011</v>
+      </c>
+      <c r="E5730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5731" spans="1:5">
+      <c r="A5731" s="2">
+        <v>44844</v>
+      </c>
+      <c r="B5731">
+        <v>32.45000076293945</v>
+      </c>
+      <c r="C5731">
+        <v>3612.389892578125</v>
+      </c>
+      <c r="D5731">
+        <v>0.2116494413588109</v>
+      </c>
+      <c r="E5731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5732" spans="1:5">
+      <c r="A5732" s="2">
+        <v>44845</v>
+      </c>
+      <c r="B5732">
+        <v>33.63000106811523</v>
+      </c>
+      <c r="C5732">
+        <v>3588.840087890625</v>
+      </c>
+      <c r="D5732">
+        <v>0.2119820768714648</v>
+      </c>
+      <c r="E5732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5733" spans="1:5">
+      <c r="A5733" s="2">
+        <v>44846</v>
+      </c>
+      <c r="B5733">
+        <v>33.56999969482422</v>
+      </c>
+      <c r="C5733">
+        <v>3577.030029296875</v>
+      </c>
+      <c r="D5733">
+        <v>0.2098807529460264</v>
+      </c>
+      <c r="E5733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5734" spans="1:5">
+      <c r="A5734" s="2">
+        <v>44847</v>
+      </c>
+      <c r="B5734">
+        <v>31.94000053405762</v>
+      </c>
+      <c r="C5734">
+        <v>3669.909912109375</v>
+      </c>
+      <c r="D5734">
+        <v>0.191754017825098</v>
+      </c>
+      <c r="E5734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5735" spans="1:5">
+      <c r="A5735" s="2">
+        <v>44848</v>
+      </c>
+      <c r="B5735">
+        <v>32.02000045776367</v>
+      </c>
+      <c r="C5735">
+        <v>3583.070068359375</v>
+      </c>
+      <c r="D5735">
+        <v>0.2205176320525911</v>
+      </c>
+      <c r="E5735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5736" spans="1:5">
+      <c r="A5736" s="2">
+        <v>44851</v>
+      </c>
+      <c r="B5736">
+        <v>31.3700008392334</v>
+      </c>
+      <c r="C5736">
+        <v>3677.949951171875</v>
+      </c>
+      <c r="D5736">
+        <v>0.1730991870298628</v>
+      </c>
+      <c r="E5736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5737" spans="1:5">
+      <c r="A5737" s="2">
+        <v>44852</v>
+      </c>
+      <c r="B5737">
+        <v>30.5</v>
+      </c>
+      <c r="C5737">
+        <v>3719.97998046875</v>
+      </c>
+      <c r="D5737">
+        <v>0.1500061888668913</v>
+      </c>
+      <c r="E5737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5738" spans="1:5">
+      <c r="A5738" s="2">
+        <v>44853</v>
+      </c>
+      <c r="B5738">
+        <v>30.76000022888184</v>
+      </c>
+      <c r="C5738">
+        <v>3695.159912109375</v>
+      </c>
+      <c r="D5738">
+        <v>0.1431603115218487</v>
+      </c>
+      <c r="E5738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5739" spans="1:5">
+      <c r="A5739" s="2">
+        <v>44854</v>
+      </c>
+      <c r="B5739">
+        <v>29.97999954223633</v>
+      </c>
+      <c r="C5739">
+        <v>3665.780029296875</v>
+      </c>
+      <c r="D5739">
+        <v>0.1503800024442168</v>
+      </c>
+      <c r="E5739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5740" spans="1:5">
+      <c r="A5740" s="2">
+        <v>44855</v>
+      </c>
+      <c r="B5740">
+        <v>29.69000053405762</v>
+      </c>
+      <c r="C5740">
+        <v>3752.75</v>
+      </c>
+      <c r="D5740">
+        <v>0.1318846647874892</v>
+      </c>
+      <c r="E5740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5741" spans="1:5">
+      <c r="A5741" s="2">
+        <v>44858</v>
+      </c>
+      <c r="B5741">
+        <v>29.85000038146973</v>
+      </c>
+      <c r="C5741">
+        <v>3797.340087890625</v>
+      </c>
+      <c r="D5741">
+        <v>0.1025533459282412</v>
+      </c>
+      <c r="E5741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5742" spans="1:5">
+      <c r="A5742" s="2">
+        <v>44859</v>
+      </c>
+      <c r="B5742">
+        <v>28.45999908447266</v>
+      </c>
+      <c r="C5742">
+        <v>3859.110107421875</v>
+      </c>
+      <c r="D5742">
+        <v>0.07206839538265374</v>
+      </c>
+      <c r="E5742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5743" spans="1:5">
+      <c r="A5743" s="2">
+        <v>44860</v>
+      </c>
+      <c r="B5743">
+        <v>27.28000068664551</v>
+      </c>
+      <c r="C5743">
+        <v>3830.60009765625</v>
+      </c>
+      <c r="D5743">
+        <v>0.07486294894283275</v>
+      </c>
+      <c r="E5743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5744" spans="1:5">
+      <c r="A5744" s="2">
+        <v>44861</v>
+      </c>
+      <c r="B5744">
+        <v>27.38999938964844</v>
+      </c>
+      <c r="C5744">
+        <v>3807.300048828125</v>
+      </c>
+      <c r="D5744">
+        <v>0.09442906279511226</v>
+      </c>
+      <c r="E5744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5745" spans="1:5">
+      <c r="A5745" s="2">
+        <v>44862</v>
+      </c>
+      <c r="B5745">
+        <v>25.75</v>
+      </c>
+      <c r="C5745">
+        <v>3901.06005859375</v>
+      </c>
+      <c r="D5745">
+        <v>0.07504107645019864</v>
+      </c>
+      <c r="E5745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5746" spans="1:5">
+      <c r="A5746" s="2">
+        <v>44865</v>
+      </c>
+      <c r="B5746">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="C5746">
+        <v>3871.97998046875</v>
+      </c>
+      <c r="D5746">
+        <v>0.09449425995436211</v>
+      </c>
+      <c r="E5746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5747" spans="1:5">
+      <c r="A5747" s="2">
+        <v>44866</v>
+      </c>
+      <c r="B5747">
+        <v>25.80999946594238</v>
+      </c>
+      <c r="C5747">
+        <v>3856.10009765625</v>
+      </c>
+      <c r="D5747">
+        <v>0.119727101425767</v>
+      </c>
+      <c r="E5747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5748" spans="1:5">
+      <c r="A5748" s="2">
+        <v>44867</v>
+      </c>
+      <c r="B5748">
+        <v>25.86000061035156</v>
+      </c>
+      <c r="C5748">
+        <v>3759.68994140625</v>
+      </c>
+      <c r="D5748">
+        <v>0.159228529924953</v>
+      </c>
+      <c r="E5748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5749" spans="1:5">
+      <c r="A5749" s="2">
+        <v>44868</v>
+      </c>
+      <c r="B5749">
+        <v>25.29999923706055</v>
+      </c>
+      <c r="C5749">
+        <v>3719.889892578125</v>
+      </c>
+      <c r="D5749">
+        <v>0.1736852720236949</v>
+      </c>
+      <c r="E5749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5750" spans="1:5">
+      <c r="A5750" s="2">
+        <v>44869</v>
+      </c>
+      <c r="B5750">
+        <v>24.54999923706055</v>
+      </c>
+      <c r="C5750">
+        <v>3770.550048828125</v>
+      </c>
+      <c r="D5750">
+        <v>0.1612045526814547</v>
+      </c>
+      <c r="E5750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5751" spans="1:5">
+      <c r="A5751" s="2">
+        <v>44872</v>
+      </c>
+      <c r="B5751">
+        <v>24.35000038146973</v>
+      </c>
+      <c r="C5751">
+        <v>3806.800048828125</v>
+      </c>
+      <c r="D5751">
+        <v>0.1513028603920064</v>
+      </c>
+      <c r="E5751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5752" spans="1:5">
+      <c r="A5752" s="2">
+        <v>44873</v>
+      </c>
+      <c r="B5752">
+        <v>25.54000091552734</v>
+      </c>
+      <c r="C5752">
+        <v>3828.110107421875</v>
+      </c>
+      <c r="D5752">
+        <v>0.1356387292067909</v>
+      </c>
+      <c r="E5752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5753" spans="1:5">
+      <c r="A5753" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B5753">
+        <v>26.09000015258789</v>
+      </c>
+      <c r="C5753">
+        <v>3748.570068359375</v>
+      </c>
+      <c r="D5753">
+        <v>0.1778465265042797</v>
+      </c>
+      <c r="E5753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5754" spans="1:5">
+      <c r="A5754" s="2">
+        <v>44875</v>
+      </c>
+      <c r="B5754">
+        <v>23.53000068664551</v>
+      </c>
+      <c r="C5754">
+        <v>3956.3701171875</v>
+      </c>
+      <c r="D5754">
+        <v>0.1150498244647489</v>
+      </c>
+      <c r="E5754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5755" spans="1:5">
+      <c r="A5755" s="2">
+        <v>44876</v>
+      </c>
+      <c r="B5755">
+        <v>22.52000045776367</v>
+      </c>
+      <c r="C5755">
+        <v>3992.929931640625</v>
+      </c>
+      <c r="D5755">
+        <v>0.1259151230498291</v>
+      </c>
+      <c r="E5755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5756" spans="1:5">
+      <c r="A5756" s="2">
+        <v>44879</v>
+      </c>
+      <c r="B5756">
+        <v>23.72999954223633</v>
+      </c>
+      <c r="C5756">
+        <v>3957.25</v>
+      </c>
+      <c r="D5756">
+        <v>0.1378810746888622</v>
+      </c>
+      <c r="E5756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5757" spans="1:5">
+      <c r="A5757" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B5757">
+        <v>24.54000091552734</v>
+      </c>
+      <c r="C5757">
+        <v>3991.72998046875</v>
+      </c>
+      <c r="D5757">
+        <v>0.1293950884537526</v>
+      </c>
+      <c r="E5757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5758" spans="1:5">
+      <c r="A5758" s="2">
+        <v>44881</v>
+      </c>
+      <c r="B5758">
+        <v>24.11000061035156</v>
+      </c>
+      <c r="C5758">
+        <v>3958.7900390625</v>
+      </c>
+      <c r="D5758">
+        <v>0.1402524445575893</v>
+      </c>
+      <c r="E5758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5759" spans="1:5">
+      <c r="A5759" s="2">
+        <v>44882</v>
+      </c>
+      <c r="B5759">
+        <v>23.93000030517578</v>
+      </c>
+      <c r="C5759">
+        <v>3946.56005859375</v>
+      </c>
+      <c r="D5759">
+        <v>0.1522388650618524</v>
+      </c>
+      <c r="E5759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5760" spans="1:5">
+      <c r="A5760" s="2">
+        <v>44883</v>
+      </c>
+      <c r="B5760">
+        <v>23.1200008392334</v>
+      </c>
+      <c r="C5760">
+        <v>3965.340087890625</v>
+      </c>
+      <c r="D5760">
+        <v>0.1444642428691039</v>
+      </c>
+      <c r="E5760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5761" spans="1:5">
+      <c r="A5761" s="2">
+        <v>44886</v>
+      </c>
+      <c r="B5761">
+        <v>22.36000061035156</v>
+      </c>
+      <c r="C5761">
+        <v>3949.93994140625</v>
+      </c>
+      <c r="D5761">
+        <v>0.1535922532445546</v>
+      </c>
+      <c r="E5761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5762" spans="1:5">
+      <c r="A5762" s="2">
+        <v>44887</v>
+      </c>
+      <c r="B5762">
+        <v>21.29000091552734</v>
+      </c>
+      <c r="C5762">
+        <v>4003.580078125</v>
+      </c>
+      <c r="D5762">
+        <v>0.1388156986447188</v>
+      </c>
+      <c r="E5762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5763" spans="1:5">
+      <c r="A5763" s="2">
+        <v>44888</v>
+      </c>
+      <c r="B5763">
+        <v>20.35000038146973</v>
+      </c>
+      <c r="C5763">
+        <v>4027.260009765625</v>
+      </c>
+      <c r="D5763">
+        <v>0.1299072234588777</v>
+      </c>
+      <c r="E5763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5764" spans="1:5">
+      <c r="A5764" s="2">
+        <v>44890</v>
+      </c>
+      <c r="B5764">
+        <v>20.5</v>
+      </c>
+      <c r="C5764">
+        <v>4026.1201171875</v>
+      </c>
+      <c r="D5764">
+        <v>0.131334884241017</v>
+      </c>
+      <c r="E5764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5765" spans="1:5">
+      <c r="A5765" s="2">
+        <v>44893</v>
+      </c>
+      <c r="B5765">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="C5765">
+        <v>3963.93994140625</v>
+      </c>
+      <c r="D5765">
+        <v>0.1479942040975104</v>
+      </c>
+      <c r="E5765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5766" spans="1:5">
+      <c r="A5766" s="2">
+        <v>44894</v>
+      </c>
+      <c r="B5766">
+        <v>21.88999938964844</v>
+      </c>
+      <c r="C5766">
+        <v>3957.6298828125</v>
+      </c>
+      <c r="D5766">
+        <v>0.1541755899218603</v>
+      </c>
+      <c r="E5766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5767" spans="1:5">
+      <c r="A5767" s="2">
+        <v>44895</v>
+      </c>
+      <c r="B5767">
+        <v>20.57999992370605</v>
+      </c>
+      <c r="C5767">
+        <v>4080.110107421875</v>
+      </c>
+      <c r="D5767">
+        <v>0.1261043848926268</v>
+      </c>
+      <c r="E5767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5768" spans="1:5">
+      <c r="A5768" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B5768">
+        <v>19.84000015258789</v>
+      </c>
+      <c r="C5768">
+        <v>4076.570068359375</v>
+      </c>
+      <c r="D5768">
+        <v>0.1209864441249181</v>
+      </c>
+      <c r="E5768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5769" spans="1:5">
+      <c r="A5769" s="2">
+        <v>44897</v>
+      </c>
+      <c r="B5769">
+        <v>19.05999946594238</v>
+      </c>
+      <c r="C5769">
+        <v>4071.699951171875</v>
+      </c>
+      <c r="D5769">
+        <v>0.1216887861461331</v>
+      </c>
+      <c r="E5769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5770" spans="1:5">
+      <c r="A5770" s="2">
+        <v>44900</v>
+      </c>
+      <c r="B5770">
+        <v>20.75</v>
+      </c>
+      <c r="C5770">
+        <v>3998.840087890625</v>
+      </c>
+      <c r="D5770">
+        <v>0.1376648587490183</v>
+      </c>
+      <c r="E5770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5771" spans="1:5">
+      <c r="A5771" s="2">
+        <v>44901</v>
+      </c>
+      <c r="B5771">
+        <v>22.17000007629395</v>
+      </c>
+      <c r="C5771">
+        <v>3941.260009765625</v>
+      </c>
+      <c r="D5771">
+        <v>0.1634832090214447</v>
+      </c>
+      <c r="E5771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5772" spans="1:5">
+      <c r="A5772" s="2">
+        <v>44902</v>
+      </c>
+      <c r="B5772">
+        <v>22.68000030517578</v>
+      </c>
+      <c r="C5772">
+        <v>3933.919921875</v>
+      </c>
+      <c r="D5772">
+        <v>0.1704280230983826</v>
+      </c>
+      <c r="E5772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5773" spans="1:5">
+      <c r="A5773" s="2">
+        <v>44903</v>
+      </c>
+      <c r="B5773">
+        <v>22.29000091552734</v>
+      </c>
+      <c r="C5773">
+        <v>3963.510009765625</v>
+      </c>
+      <c r="D5773">
+        <v>0.1662490898262143</v>
+      </c>
+      <c r="E5773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5774" spans="1:5">
+      <c r="A5774" s="2">
+        <v>44904</v>
+      </c>
+      <c r="B5774">
+        <v>22.82999992370605</v>
+      </c>
+      <c r="C5774">
+        <v>3934.3798828125</v>
+      </c>
+      <c r="D5774">
+        <v>0.1802877031774931</v>
+      </c>
+      <c r="E5774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5775" spans="1:5">
+      <c r="A5775" s="2">
+        <v>44907</v>
+      </c>
+      <c r="B5775">
+        <v>25</v>
+      </c>
+      <c r="C5775">
+        <v>3990.56005859375</v>
+      </c>
+      <c r="D5775">
+        <v>0.1795561962820705</v>
+      </c>
+      <c r="E5775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5776" spans="1:5">
+      <c r="A5776" s="2">
+        <v>44908</v>
+      </c>
+      <c r="B5776">
+        <v>22.54999923706055</v>
+      </c>
+      <c r="C5776">
+        <v>4019.64990234375</v>
+      </c>
+      <c r="D5776">
+        <v>0.1741196172173246</v>
+      </c>
+      <c r="E5776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5777" spans="1:5">
+      <c r="A5777" s="2">
+        <v>44909</v>
+      </c>
+      <c r="B5777">
+        <v>21.13999938964844</v>
+      </c>
+      <c r="C5777">
+        <v>3995.320068359375</v>
+      </c>
+      <c r="D5777">
+        <v>0.1811794451161763</v>
+      </c>
+      <c r="E5777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5778" spans="1:5">
+      <c r="A5778" s="2">
+        <v>44910</v>
+      </c>
+      <c r="B5778">
+        <v>22.82999992370605</v>
+      </c>
+      <c r="C5778">
+        <v>3895.75</v>
+      </c>
+      <c r="D5778">
+        <v>0.2168542793027658</v>
+      </c>
+      <c r="E5778">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5779" spans="1:5">
+      <c r="A5779" s="2">
+        <v>44911</v>
+      </c>
+      <c r="B5779">
+        <v>22.6200008392334</v>
+      </c>
+      <c r="C5779">
+        <v>3852.360107421875</v>
+      </c>
+      <c r="D5779">
+        <v>0.2377789158393733</v>
+      </c>
+      <c r="E5779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5780" spans="1:5">
+      <c r="A5780" s="2">
+        <v>44914</v>
+      </c>
+      <c r="B5780">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="C5780">
+        <v>3817.659912109375</v>
+      </c>
+      <c r="D5780">
+        <v>0.2306884860941598</v>
+      </c>
+      <c r="E5780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5781" spans="1:5">
+      <c r="A5781" s="2">
+        <v>44915</v>
+      </c>
+      <c r="B5781">
+        <v>21.47999954223633</v>
+      </c>
+      <c r="C5781">
+        <v>3821.6201171875</v>
+      </c>
+      <c r="D5781">
+        <v>0.2420779288479736</v>
+      </c>
+      <c r="E5781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5782" spans="1:5">
+      <c r="A5782" s="2">
+        <v>44916</v>
+      </c>
+      <c r="B5782">
+        <v>20.06999969482422</v>
+      </c>
+      <c r="C5782">
+        <v>3878.43994140625</v>
+      </c>
+      <c r="D5782">
+        <v>0.2259129842522609</v>
+      </c>
+      <c r="E5782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5783" spans="1:5">
+      <c r="A5783" s="2">
+        <v>44917</v>
+      </c>
+      <c r="B5783">
+        <v>21.96999931335449</v>
+      </c>
+      <c r="C5783">
+        <v>3822.389892578125</v>
+      </c>
+      <c r="D5783">
+        <v>0.2491530519351408</v>
+      </c>
+      <c r="E5783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5784" spans="1:5">
+      <c r="A5784" s="2">
+        <v>44918</v>
+      </c>
+      <c r="B5784">
+        <v>20.8700008392334</v>
+      </c>
+      <c r="C5784">
+        <v>3844.820068359375</v>
+      </c>
+      <c r="D5784">
+        <v>0.2436420932866568</v>
+      </c>
+      <c r="E5784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5785" spans="1:5">
+      <c r="A5785" s="2">
+        <v>44922</v>
+      </c>
+      <c r="B5785">
+        <v>21.64999961853027</v>
+      </c>
+      <c r="C5785">
+        <v>3829.25</v>
+      </c>
+      <c r="D5785">
+        <v>0.2491610883740289</v>
+      </c>
+      <c r="E5785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5786" spans="1:5">
+      <c r="A5786" s="2">
+        <v>44923</v>
+      </c>
+      <c r="B5786">
+        <v>22.13999938964844</v>
+      </c>
+      <c r="C5786">
+        <v>3783.219970703125</v>
+      </c>
+      <c r="D5786">
+        <v>0.2607858160672878</v>
+      </c>
+      <c r="E5786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5787" spans="1:5">
+      <c r="A5787" s="2">
+        <v>44924</v>
+      </c>
+      <c r="B5787">
+        <v>21.44000053405762</v>
+      </c>
+      <c r="C5787">
+        <v>3849.280029296875</v>
+      </c>
+      <c r="D5787">
+        <v>0.2321343321419368</v>
+      </c>
+      <c r="E5787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5788" spans="1:5">
+      <c r="A5788" s="2">
+        <v>44925</v>
+      </c>
+      <c r="B5788">
+        <v>21.67000007629395</v>
+      </c>
+      <c r="C5788">
+        <v>3839.5</v>
+      </c>
+      <c r="D5788">
+        <v>0.2253705062101185</v>
+      </c>
+      <c r="E5788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5789" spans="1:5">
+      <c r="A5789" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B5789">
+        <v>22.89999961853027</v>
+      </c>
+      <c r="C5789">
+        <v>3824.139892578125</v>
+      </c>
+      <c r="D5789">
+        <v>0.2260744396095502</v>
+      </c>
+      <c r="E5789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5790" spans="1:5">
+      <c r="A5790" s="2">
+        <v>44930</v>
+      </c>
+      <c r="B5790">
+        <v>22.01000022888184</v>
+      </c>
+      <c r="C5790">
+        <v>3852.969970703125</v>
+      </c>
+      <c r="D5790">
+        <v>0.2191219423176052</v>
+      </c>
+      <c r="E5790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5791" spans="1:5">
+      <c r="A5791" s="2">
+        <v>44931</v>
+      </c>
+      <c r="B5791">
+        <v>22.45999908447266</v>
+      </c>
+      <c r="C5791">
+        <v>3808.10009765625</v>
+      </c>
+      <c r="D5791">
+        <v>0.2508967508480907</v>
+      </c>
+      <c r="E5791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5792" spans="1:5">
+      <c r="A5792" s="2">
+        <v>44932</v>
+      </c>
+      <c r="B5792">
+        <v>21.1299991607666</v>
+      </c>
+      <c r="C5792">
+        <v>3895.080078125</v>
+      </c>
+      <c r="D5792">
+        <v>0.2211558952825605</v>
+      </c>
+      <c r="E5792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5793" spans="1:5">
+      <c r="A5793" s="2">
+        <v>44935</v>
+      </c>
+      <c r="B5793">
+        <v>21.96999931335449</v>
+      </c>
+      <c r="C5793">
+        <v>3892.090087890625</v>
+      </c>
+      <c r="D5793">
+        <v>0.2290183647586021</v>
+      </c>
+      <c r="E5793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5794" spans="1:5">
+      <c r="A5794" s="2">
+        <v>44936</v>
+      </c>
+      <c r="B5794">
+        <v>20.57999992370605</v>
+      </c>
+      <c r="C5794">
+        <v>3919.25</v>
+      </c>
+      <c r="D5794">
+        <v>0.2196823969828411</v>
+      </c>
+      <c r="E5794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5795" spans="1:5">
+      <c r="A5795" s="2">
+        <v>44937</v>
+      </c>
+      <c r="B5795">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="C5795">
+        <v>3969.610107421875</v>
+      </c>
+      <c r="D5795">
+        <v>0.2051133357356178</v>
+      </c>
+      <c r="E5795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5796" spans="1:5">
+      <c r="A5796" s="2">
+        <v>44938</v>
+      </c>
+      <c r="B5796">
+        <v>18.82999992370605</v>
+      </c>
+      <c r="C5796">
+        <v>3983.169921875</v>
+      </c>
+      <c r="D5796">
+        <v>0.1965294160047426</v>
+      </c>
+      <c r="E5796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5797" spans="1:5">
+      <c r="A5797" s="2">
+        <v>44939</v>
+      </c>
+      <c r="B5797">
+        <v>18.35000038146973</v>
+      </c>
+      <c r="C5797">
+        <v>3999.090087890625</v>
+      </c>
+      <c r="D5797">
+        <v>0.1850720680906844</v>
+      </c>
+      <c r="E5797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5798" spans="1:5">
+      <c r="A5798" s="2">
+        <v>44943</v>
+      </c>
+      <c r="B5798">
+        <v>19.36000061035156</v>
+      </c>
+      <c r="C5798">
+        <v>3990.969970703125</v>
+      </c>
+      <c r="D5798">
+        <v>0.1979393421905274</v>
+      </c>
+      <c r="E5798">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5799" spans="1:5">
+      <c r="A5799" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B5799">
+        <v>20.34000015258789</v>
+      </c>
+      <c r="C5799">
+        <v>3928.860107421875</v>
+      </c>
+      <c r="D5799">
+        <v>0.2318611317952071</v>
+      </c>
+      <c r="E5799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5800" spans="1:5">
+      <c r="A5800" s="2">
+        <v>44945</v>
+      </c>
+      <c r="B5800">
+        <v>20.52000045776367</v>
+      </c>
+      <c r="C5800">
+        <v>3898.85009765625</v>
+      </c>
+      <c r="D5800">
+        <v>0.2440668541468244</v>
+      </c>
+      <c r="E5800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5801" spans="1:5">
+      <c r="A5801" s="2">
+        <v>44946</v>
+      </c>
+      <c r="B5801">
+        <v>19.85000038146973</v>
+      </c>
+      <c r="C5801">
+        <v>3972.610107421875</v>
+      </c>
+      <c r="D5801">
+        <v>0.2245349949062216</v>
+      </c>
+      <c r="E5801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5802" spans="1:5">
+      <c r="A5802" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B5802">
+        <v>19.80999946594238</v>
+      </c>
+      <c r="C5802">
+        <v>4019.81005859375</v>
+      </c>
+      <c r="D5802">
+        <v>0.2111392662146491</v>
+      </c>
+      <c r="E5802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5803" spans="1:5">
+      <c r="A5803" s="2">
+        <v>44950</v>
+      </c>
+      <c r="B5803">
+        <v>19.20000076293945</v>
+      </c>
+      <c r="C5803">
+        <v>4016.949951171875</v>
+      </c>
+      <c r="D5803">
+        <v>0.2183771806323388</v>
+      </c>
+      <c r="E5803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5804" spans="1:5">
+      <c r="A5804" s="2">
+        <v>44951</v>
+      </c>
+      <c r="B5804">
+        <v>19.07999992370605</v>
+      </c>
+      <c r="C5804">
+        <v>4016.219970703125</v>
+      </c>
+      <c r="D5804">
+        <v>0.2178043659265708</v>
+      </c>
+      <c r="E5804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5805" spans="1:5">
+      <c r="A5805" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B5805">
+        <v>18.72999954223633</v>
+      </c>
+      <c r="C5805">
+        <v>4060.429931640625</v>
+      </c>
+      <c r="D5805">
+        <v>0.2136473867904204</v>
+      </c>
+      <c r="E5805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5806" spans="1:5">
+      <c r="A5806" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B5806">
+        <v>18.51000022888184</v>
+      </c>
+      <c r="C5806">
+        <v>4070.56005859375</v>
+      </c>
+      <c r="D5806">
+        <v>0.2098999017214284</v>
+      </c>
+      <c r="E5806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5807" spans="1:5">
+      <c r="A5807" s="2">
+        <v>44956</v>
+      </c>
+      <c r="B5807">
+        <v>19.94000053405762</v>
+      </c>
+      <c r="C5807">
+        <v>4017.77001953125</v>
+      </c>
+      <c r="D5807">
+        <v>0.2060545722597353</v>
+      </c>
+      <c r="E5807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5808" spans="1:5">
+      <c r="A5808" s="2">
+        <v>44957</v>
+      </c>
+      <c r="B5808">
+        <v>19.39999961853027</v>
+      </c>
+      <c r="C5808">
+        <v>4076.60009765625</v>
+      </c>
+      <c r="D5808">
+        <v>0.2035004228712436</v>
+      </c>
+      <c r="E5808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5809" spans="1:5">
+      <c r="A5809" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B5809">
+        <v>17.8700008392334</v>
+      </c>
+      <c r="C5809">
+        <v>4119.2099609375</v>
+      </c>
+      <c r="D5809">
+        <v>0.2037769160357898</v>
+      </c>
+      <c r="E5809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5810" spans="1:5">
+      <c r="A5810" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B5810">
+        <v>18.72999954223633</v>
+      </c>
+      <c r="C5810">
+        <v>4179.759765625</v>
+      </c>
+      <c r="D5810">
+        <v>0.1825584090368531</v>
+      </c>
+      <c r="E5810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5811" spans="1:5">
+      <c r="A5811" s="2">
+        <v>44960</v>
+      </c>
+      <c r="B5811">
+        <v>18.32999992370605</v>
+      </c>
+      <c r="C5811">
+        <v>4136.47998046875</v>
+      </c>
+      <c r="D5811">
+        <v>0.1976922416791999</v>
+      </c>
+      <c r="E5811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5812" spans="1:5">
+      <c r="A5812" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B5812">
+        <v>19.43000030517578</v>
+      </c>
+      <c r="C5812">
+        <v>4111.080078125</v>
+      </c>
+      <c r="D5812">
+        <v>0.2150237805321271</v>
+      </c>
+      <c r="E5812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5813" spans="1:5">
+      <c r="A5813" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B5813">
+        <v>18.65999984741211</v>
+      </c>
+      <c r="C5813">
+        <v>4164</v>
+      </c>
+      <c r="D5813">
+        <v>0.2002666081292027</v>
+      </c>
+      <c r="E5813">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5814" spans="1:5">
+      <c r="A5814" s="2">
+        <v>44965</v>
+      </c>
+      <c r="B5814">
+        <v>19.6299991607666</v>
+      </c>
+      <c r="C5814">
+        <v>4117.85986328125</v>
+      </c>
+      <c r="D5814">
+        <v>0.2206850233305116</v>
+      </c>
+      <c r="E5814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5815" spans="1:5">
+      <c r="A5815" s="2">
+        <v>44966</v>
+      </c>
+      <c r="B5815">
+        <v>20.70999908447266</v>
+      </c>
+      <c r="C5815">
+        <v>4081.5</v>
+      </c>
+      <c r="D5815">
+        <v>0.2303907494181061</v>
+      </c>
+      <c r="E5815">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5816" spans="1:5">
+      <c r="A5816" s="2">
+        <v>44967</v>
+      </c>
+      <c r="B5816">
+        <v>20.53000068664551</v>
+      </c>
+      <c r="C5816">
+        <v>4090.4599609375</v>
+      </c>
+      <c r="D5816">
+        <v>0.2109078121228631</v>
+      </c>
+      <c r="E5816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5817" spans="1:5">
+      <c r="A5817" s="2">
+        <v>44970</v>
+      </c>
+      <c r="B5817">
+        <v>20.34000015258789</v>
+      </c>
+      <c r="C5817">
+        <v>4137.2900390625</v>
+      </c>
+      <c r="D5817">
+        <v>0.2086704267706183</v>
+      </c>
+      <c r="E5817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5818" spans="1:5">
+      <c r="A5818" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B5818">
+        <v>18.90999984741211</v>
+      </c>
+      <c r="C5818">
+        <v>4136.1298828125</v>
+      </c>
+      <c r="D5818">
+        <v>0.2160473976819647</v>
+      </c>
+      <c r="E5818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5819" spans="1:5">
+      <c r="A5819" s="2">
+        <v>44972</v>
+      </c>
+      <c r="B5819">
+        <v>18.22999954223633</v>
+      </c>
+      <c r="C5819">
+        <v>4147.60009765625</v>
+      </c>
+      <c r="D5819">
+        <v>0.2068593177648266</v>
+      </c>
+      <c r="E5819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5820" spans="1:5">
+      <c r="A5820" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B5820">
+        <v>20.17000007629395</v>
+      </c>
+      <c r="C5820">
+        <v>4090.409912109375</v>
+      </c>
+      <c r="D5820">
+        <v>0.2163841454851134</v>
+      </c>
+      <c r="E5820">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5821" spans="1:5">
+      <c r="A5821" s="2">
+        <v>44974</v>
+      </c>
+      <c r="B5821">
+        <v>20.02000045776367</v>
+      </c>
+      <c r="C5821">
+        <v>4079.090087890625</v>
+      </c>
+      <c r="D5821">
+        <v>0.2213017357661947</v>
+      </c>
+      <c r="E5821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5822" spans="1:5">
+      <c r="A5822" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B5822">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="C5822">
+        <v>3997.340087890625</v>
+      </c>
+      <c r="D5822">
+        <v>0.2726036997869372</v>
+      </c>
+      <c r="E5822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5823" spans="1:5">
+      <c r="A5823" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B5823">
+        <v>22.29000091552734</v>
+      </c>
+      <c r="C5823">
+        <v>3991.050048828125</v>
+      </c>
+      <c r="D5823">
+        <v>0.2750528663958255</v>
+      </c>
+      <c r="E5823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5824" spans="1:5">
+      <c r="A5824" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B5824">
+        <v>21.13999938964844</v>
+      </c>
+      <c r="C5824">
+        <v>4012.320068359375</v>
+      </c>
+      <c r="D5824">
+        <v>0.2634908728079524</v>
+      </c>
+      <c r="E5824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5825" spans="1:5">
+      <c r="A5825" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B5825">
+        <v>21.67000007629395</v>
+      </c>
+      <c r="C5825">
+        <v>3970.0400390625</v>
+      </c>
+      <c r="D5825">
+        <v>0.2791256828181587</v>
+      </c>
+      <c r="E5825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5826" spans="1:5">
+      <c r="A5826" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B5826">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="C5826">
+        <v>3982.239990234375</v>
+      </c>
+      <c r="D5826">
+        <v>0.273092475103847</v>
+      </c>
+      <c r="E5826">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5827" spans="1:5">
+      <c r="A5827" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B5827">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="C5827">
+        <v>3970.14990234375</v>
+      </c>
+      <c r="D5827">
+        <v>0.2836467500944241</v>
+      </c>
+      <c r="E5827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5828" spans="1:5">
+      <c r="A5828" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B5828">
+        <v>20.57999992370605</v>
+      </c>
+      <c r="C5828">
+        <v>3951.389892578125</v>
+      </c>
+      <c r="D5828">
+        <v>0.3000691447265051</v>
+      </c>
+      <c r="E5828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5829" spans="1:5">
+      <c r="A5829" s="2">
+        <v>44987</v>
+      </c>
+      <c r="B5829">
+        <v>19.59000015258789</v>
+      </c>
+      <c r="C5829">
+        <v>3981.35009765625</v>
+      </c>
+      <c r="D5829">
+        <v>0.2887462969742347</v>
+      </c>
+      <c r="E5829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5830" spans="1:5">
+      <c r="A5830" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B5830">
+        <v>18.48999977111816</v>
+      </c>
+      <c r="C5830">
+        <v>4045.639892578125</v>
+      </c>
+      <c r="D5830">
+        <v>0.2553390902785787</v>
+      </c>
+      <c r="E5830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5831" spans="1:5">
+      <c r="A5831" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B5831">
+        <v>18.61000061035156</v>
+      </c>
+      <c r="C5831">
+        <v>4048.419921875</v>
+      </c>
+      <c r="D5831">
+        <v>0.2609264513402461</v>
+      </c>
+      <c r="E5831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5832" spans="1:5">
+      <c r="A5832" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B5832">
+        <v>19.59000015258789</v>
+      </c>
+      <c r="C5832">
+        <v>3986.3701171875</v>
+      </c>
+      <c r="D5832">
+        <v>0.2937483755070684</v>
+      </c>
+      <c r="E5832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5833" spans="1:5">
+      <c r="A5833" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B5833">
+        <v>19.11000061035156</v>
+      </c>
+      <c r="C5833">
+        <v>3992.010009765625</v>
+      </c>
+      <c r="D5833">
+        <v>0.283486245994425</v>
+      </c>
+      <c r="E5833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5834" spans="1:5">
+      <c r="A5834" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B5834">
+        <v>22.61000061035156</v>
+      </c>
+      <c r="C5834">
+        <v>3918.320068359375</v>
+      </c>
+      <c r="D5834">
+        <v>0.3061566824859112</v>
+      </c>
+      <c r="E5834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5835" spans="1:5">
+      <c r="A5835" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B5835">
+        <v>24.79999923706055</v>
+      </c>
+      <c r="C5835">
+        <v>3861.590087890625</v>
+      </c>
+      <c r="D5835">
+        <v>0.3401914500868776</v>
+      </c>
+      <c r="E5835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5836" spans="1:5">
+      <c r="A5836" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B5836">
+        <v>26.52000045776367</v>
+      </c>
+      <c r="C5836">
+        <v>3855.760009765625</v>
+      </c>
+      <c r="D5836">
+        <v>0.3396347401060698</v>
+      </c>
+      <c r="E5836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5837" spans="1:5">
+      <c r="A5837" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B5837">
+        <v>23.72999954223633</v>
+      </c>
+      <c r="C5837">
+        <v>3919.2900390625</v>
+      </c>
+      <c r="D5837">
+        <v>0.3141359606294288</v>
+      </c>
+      <c r="E5837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5838" spans="1:5">
+      <c r="A5838" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B5838">
+        <v>26.13999938964844</v>
+      </c>
+      <c r="C5838">
+        <v>3891.929931640625</v>
+      </c>
+      <c r="D5838">
+        <v>0.3147949561345043</v>
+      </c>
+      <c r="E5838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5839" spans="1:5">
+      <c r="A5839" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B5839">
+        <v>22.98999977111816</v>
+      </c>
+      <c r="C5839">
+        <v>3960.280029296875</v>
+      </c>
+      <c r="D5839">
+        <v>0.3002666184666871</v>
+      </c>
+      <c r="E5839">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5840" spans="1:5">
+      <c r="A5840" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B5840">
+        <v>25.51000022888184</v>
+      </c>
+      <c r="C5840">
+        <v>3916.639892578125</v>
+      </c>
+      <c r="D5840">
+        <v>0.3221817444687901</v>
+      </c>
+      <c r="E5840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5841" spans="1:5">
+      <c r="A5841" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B5841">
+        <v>24.14999961853027</v>
+      </c>
+      <c r="C5841">
+        <v>3951.570068359375</v>
+      </c>
+      <c r="D5841">
+        <v>0.3221630963908667</v>
+      </c>
+      <c r="E5841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5842" spans="1:5">
+      <c r="A5842" s="2">
+        <v>45006</v>
+      </c>
+      <c r="B5842">
+        <v>21.3799991607666</v>
+      </c>
+      <c r="C5842">
+        <v>4002.8701171875</v>
+      </c>
+      <c r="D5842">
+        <v>0.3094428826581708</v>
+      </c>
+      <c r="E5842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5843" spans="1:5">
+      <c r="A5843" s="2">
+        <v>45007</v>
+      </c>
+      <c r="B5843">
+        <v>22.26000022888184</v>
+      </c>
+      <c r="C5843">
+        <v>3936.969970703125</v>
+      </c>
+      <c r="D5843">
+        <v>0.329494564279455</v>
+      </c>
+      <c r="E5843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5844" spans="1:5">
+      <c r="A5844" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B5844">
+        <v>22.61000061035156</v>
+      </c>
+      <c r="C5844">
+        <v>3948.719970703125</v>
+      </c>
+      <c r="D5844">
+        <v>0.3214889838027886</v>
+      </c>
+      <c r="E5844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5845" spans="1:5">
+      <c r="A5845" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B5845">
+        <v>21.73999977111816</v>
+      </c>
+      <c r="C5845">
+        <v>3970.989990234375</v>
+      </c>
+      <c r="D5845">
+        <v>0.3103986892240631</v>
+      </c>
+      <c r="E5845">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5846" spans="1:5">
+      <c r="A5846" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B5846">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="C5846">
+        <v>3977.530029296875</v>
+      </c>
+      <c r="D5846">
+        <v>0.3195350369995316</v>
+      </c>
+      <c r="E5846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5847" spans="1:5">
+      <c r="A5847" s="2">
+        <v>45013</v>
+      </c>
+      <c r="B5847">
+        <v>19.96999931335449</v>
+      </c>
+      <c r="C5847">
+        <v>3971.27001953125</v>
+      </c>
+      <c r="D5847">
+        <v>0.3230906163052717</v>
+      </c>
+      <c r="E5847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5848" spans="1:5">
+      <c r="A5848" s="2">
+        <v>45014</v>
+      </c>
+      <c r="B5848">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="C5848">
+        <v>4027.81005859375</v>
+      </c>
+      <c r="D5848">
+        <v>0.3018910880226647</v>
+      </c>
+      <c r="E5848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5849" spans="1:5">
+      <c r="A5849" s="2">
+        <v>45015</v>
+      </c>
+      <c r="B5849">
+        <v>19.02000045776367</v>
+      </c>
+      <c r="C5849">
+        <v>4050.830078125</v>
+      </c>
+      <c r="D5849">
+        <v>0.2851218042212606</v>
+      </c>
+      <c r="E5849">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5850" spans="1:5">
+      <c r="A5850" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B5850">
+        <v>18.70000076293945</v>
+      </c>
+      <c r="C5850">
+        <v>4109.31005859375</v>
+      </c>
+      <c r="D5850">
+        <v>0.268215384107187</v>
+      </c>
+      <c r="E5850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5851" spans="1:5">
+      <c r="A5851" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B5851">
+        <v>18.54999923706055</v>
+      </c>
+      <c r="C5851">
+        <v>4124.509765625</v>
+      </c>
+      <c r="D5851">
+        <v>0.2479567884251395</v>
+      </c>
+      <c r="E5851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5852" spans="1:5">
+      <c r="A5852" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B5852">
+        <v>19</v>
+      </c>
+      <c r="C5852">
+        <v>4100.60009765625</v>
+      </c>
+      <c r="D5852">
+        <v>0.2691654196478722</v>
+      </c>
+      <c r="E5852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5853" spans="1:5">
+      <c r="A5853" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B5853">
+        <v>19.07999992370605</v>
+      </c>
+      <c r="C5853">
+        <v>4090.3798828125</v>
+      </c>
+      <c r="D5853">
+        <v>0.2718598970669795</v>
+      </c>
+      <c r="E5853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5854" spans="1:5">
+      <c r="A5854" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B5854">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="C5854">
+        <v>4105.02001953125</v>
+      </c>
+      <c r="D5854">
+        <v>0.2691558461254269</v>
+      </c>
+      <c r="E5854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5855" spans="1:5">
+      <c r="A5855" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B5855">
+        <v>18.96999931335449</v>
+      </c>
+      <c r="C5855">
+        <v>4109.10986328125</v>
+      </c>
+      <c r="D5855">
+        <v>0.255902204716868</v>
+      </c>
+      <c r="E5855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5856" spans="1:5">
+      <c r="A5856" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B5856">
+        <v>19.10000038146973</v>
+      </c>
+      <c r="C5856">
+        <v>4108.93994140625</v>
+      </c>
+      <c r="D5856">
+        <v>0.2653044660502912</v>
+      </c>
+      <c r="E5856">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5857" spans="1:5">
+      <c r="A5857" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B5857">
+        <v>19.09000015258789</v>
+      </c>
+      <c r="C5857">
+        <v>4091.949951171875</v>
+      </c>
+      <c r="D5857">
+        <v>0.2520705818463713</v>
+      </c>
+      <c r="E5857">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5858" spans="1:5">
+      <c r="A5858" s="2">
+        <v>45029</v>
+      </c>
+      <c r="B5858">
+        <v>17.79999923706055</v>
+      </c>
+      <c r="C5858">
+        <v>4146.22021484375</v>
+      </c>
+      <c r="D5858">
+        <v>0.2208275397667233</v>
+      </c>
+      <c r="E5858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5859" spans="1:5">
+      <c r="A5859" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B5859">
+        <v>17.06999969482422</v>
+      </c>
+      <c r="C5859">
+        <v>4137.64013671875</v>
+      </c>
+      <c r="D5859">
+        <v>0.220843280067341</v>
+      </c>
+      <c r="E5859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5860" spans="1:5">
+      <c r="A5860" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B5860">
+        <v>16.95000076293945</v>
+      </c>
+      <c r="C5860">
+        <v>4151.31982421875</v>
+      </c>
+      <c r="D5860">
+        <v>0.2097863266612193</v>
+      </c>
+      <c r="E5860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5861" spans="1:5">
+      <c r="A5861" s="2">
+        <v>45034</v>
+      </c>
+      <c r="B5861">
+        <v>16.82999992370605</v>
+      </c>
+      <c r="C5861">
+        <v>4154.8701171875</v>
+      </c>
+      <c r="D5861">
+        <v>0.2060834576893127</v>
+      </c>
+      <c r="E5861">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5862" spans="1:5">
+      <c r="A5862" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B5862">
+        <v>16.45999908447266</v>
+      </c>
+      <c r="C5862">
+        <v>4154.52001953125</v>
+      </c>
+      <c r="D5862">
+        <v>0.1956206630649952</v>
+      </c>
+      <c r="E5862">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5863" spans="1:5">
+      <c r="A5863" s="2">
+        <v>45036</v>
+      </c>
+      <c r="B5863">
+        <v>17.17000007629395</v>
+      </c>
+      <c r="C5863">
+        <v>4129.7900390625</v>
+      </c>
+      <c r="D5863">
+        <v>0.213282043460423</v>
+      </c>
+      <c r="E5863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5864" spans="1:5">
+      <c r="A5864" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B5864">
+        <v>16.77000045776367</v>
+      </c>
+      <c r="C5864">
+        <v>4133.52001953125</v>
+      </c>
+      <c r="D5864">
+        <v>0.2266905157659092</v>
+      </c>
+      <c r="E5864">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5865" spans="1:5">
+      <c r="A5865" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B5865">
+        <v>16.88999938964844</v>
+      </c>
+      <c r="C5865">
+        <v>4137.0400390625</v>
+      </c>
+      <c r="D5865">
+        <v>0.2259078555985619</v>
+      </c>
+      <c r="E5865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5866" spans="1:5">
+      <c r="A5866" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B5866">
+        <v>18.76000022888184</v>
+      </c>
+      <c r="C5866">
+        <v>4071.6298828125</v>
+      </c>
+      <c r="D5866">
+        <v>0.2399014810225769</v>
+      </c>
+      <c r="E5866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5867" spans="1:5">
+      <c r="A5867" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B5867">
+        <v>18.84000015258789</v>
+      </c>
+      <c r="C5867">
+        <v>4055.989990234375</v>
+      </c>
+      <c r="D5867">
+        <v>0.2573896812410031</v>
+      </c>
+      <c r="E5867">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5868" spans="1:5">
+      <c r="A5868" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B5868">
+        <v>17.03000068664551</v>
+      </c>
+      <c r="C5868">
+        <v>4135.35009765625</v>
+      </c>
+      <c r="D5868">
+        <v>0.2371793925681502</v>
+      </c>
+      <c r="E5868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5869" spans="1:5">
+      <c r="A5869" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B5869">
+        <v>15.77999973297119</v>
+      </c>
+      <c r="C5869">
+        <v>4169.47998046875</v>
+      </c>
+      <c r="D5869">
+        <v>0.2077501187186698</v>
+      </c>
+      <c r="E5869">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5870" spans="1:5">
+      <c r="A5870" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B5870">
+        <v>16.07999992370605</v>
+      </c>
+      <c r="C5870">
+        <v>4167.8701171875</v>
+      </c>
+      <c r="D5870">
+        <v>0.2040658647264146</v>
+      </c>
+      <c r="E5870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5871" spans="1:5">
+      <c r="A5871" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B5871">
+        <v>17.78000068664551</v>
+      </c>
+      <c r="C5871">
+        <v>4119.580078125</v>
+      </c>
+      <c r="D5871">
+        <v>0.2293000983773661</v>
+      </c>
+      <c r="E5871">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5872" spans="1:5">
+      <c r="A5872" s="2">
+        <v>45049</v>
+      </c>
+      <c r="B5872">
+        <v>18.34000015258789</v>
+      </c>
+      <c r="C5872">
+        <v>4090.75</v>
+      </c>
+      <c r="D5872">
+        <v>0.2535085348805231</v>
+      </c>
+      <c r="E5872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5873" spans="1:5">
+      <c r="A5873" s="2">
+        <v>45050</v>
+      </c>
+      <c r="B5873">
+        <v>20.09000015258789</v>
+      </c>
+      <c r="C5873">
+        <v>4061.219970703125</v>
+      </c>
+      <c r="D5873">
+        <v>0.2756610751813207</v>
+      </c>
+      <c r="E5873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5874" spans="1:5">
+      <c r="A5874" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B5874">
+        <v>17.19000053405762</v>
+      </c>
+      <c r="C5874">
+        <v>4136.25</v>
+      </c>
+      <c r="D5874">
+        <v>0.2542037341341795</v>
+      </c>
+      <c r="E5874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5875" spans="1:5">
+      <c r="A5875" s="2">
+        <v>45054</v>
+      </c>
+      <c r="B5875">
+        <v>16.97999954223633</v>
+      </c>
+      <c r="C5875">
+        <v>4138.1201171875</v>
+      </c>
+      <c r="D5875">
+        <v>0.2536296131976066</v>
+      </c>
+      <c r="E5875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5876" spans="1:5">
+      <c r="A5876" s="2">
+        <v>45055</v>
+      </c>
+      <c r="B5876">
+        <v>17.70999908447266</v>
+      </c>
+      <c r="C5876">
+        <v>4119.169921875</v>
+      </c>
+      <c r="D5876">
+        <v>0.2658084461229531</v>
+      </c>
+      <c r="E5876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5877" spans="1:5">
+      <c r="A5877" s="2">
+        <v>45056</v>
+      </c>
+      <c r="B5877">
+        <v>16.94000053405762</v>
+      </c>
+      <c r="C5877">
+        <v>4137.64013671875</v>
+      </c>
+      <c r="D5877">
+        <v>0.2622364447389964</v>
+      </c>
+      <c r="E5877">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5878" spans="1:5">
+      <c r="A5878" s="2">
+        <v>45057</v>
+      </c>
+      <c r="B5878">
+        <v>16.93000030517578</v>
+      </c>
+      <c r="C5878">
+        <v>4130.6201171875</v>
+      </c>
+      <c r="D5878">
+        <v>0.2640765245268343</v>
+      </c>
+      <c r="E5878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5879" spans="1:5">
+      <c r="A5879" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B5879">
+        <v>17.03000068664551</v>
+      </c>
+      <c r="C5879">
+        <v>4124.080078125</v>
+      </c>
+      <c r="D5879">
+        <v>0.2722061832918231</v>
+      </c>
+      <c r="E5879">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5880" spans="1:5">
+      <c r="A5880" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B5880">
+        <v>17.1200008392334</v>
+      </c>
+      <c r="C5880">
+        <v>4136.27978515625</v>
+      </c>
+      <c r="D5880">
+        <v>0.2833150023828072</v>
+      </c>
+      <c r="E5880">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5881" spans="1:5">
+      <c r="A5881" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B5881">
+        <v>17.98999977111816</v>
+      </c>
+      <c r="C5881">
+        <v>4109.89990234375</v>
+      </c>
+      <c r="D5881">
+        <v>0.2888635303831794</v>
+      </c>
+      <c r="E5881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5882" spans="1:5">
+      <c r="A5882" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B5882">
+        <v>16.8700008392334</v>
+      </c>
+      <c r="C5882">
+        <v>4158.77001953125</v>
+      </c>
+      <c r="D5882">
+        <v>0.2752015607078462</v>
+      </c>
+      <c r="E5882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5883" spans="1:5">
+      <c r="A5883" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B5883">
+        <v>16.04999923706055</v>
+      </c>
+      <c r="C5883">
+        <v>4198.0498046875</v>
+      </c>
+      <c r="D5883">
+        <v>0.2644275627424658</v>
+      </c>
+      <c r="E5883">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5884" spans="1:5">
+      <c r="A5884" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B5884">
+        <v>16.80999946594238</v>
+      </c>
+      <c r="C5884">
+        <v>4191.97998046875</v>
+      </c>
+      <c r="D5884">
+        <v>0.2694264240391139</v>
+      </c>
+      <c r="E5884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5885" spans="1:5">
+      <c r="A5885" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B5885">
+        <v>17.20999908447266</v>
+      </c>
+      <c r="C5885">
+        <v>4192.6298828125</v>
+      </c>
+      <c r="D5885">
+        <v>0.2657949578093814</v>
+      </c>
+      <c r="E5885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5886" spans="1:5">
+      <c r="A5886" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B5886">
+        <v>18.53000068664551</v>
+      </c>
+      <c r="C5886">
+        <v>4145.580078125</v>
+      </c>
+      <c r="D5886">
+        <v>0.2707123597845408</v>
+      </c>
+      <c r="E5886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5887" spans="1:5">
+      <c r="A5887" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B5887">
+        <v>20.03000068664551</v>
+      </c>
+      <c r="C5887">
+        <v>4115.240234375</v>
+      </c>
+      <c r="D5887">
+        <v>0.2890426591703951</v>
+      </c>
+      <c r="E5887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5888" spans="1:5">
+      <c r="A5888" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B5888">
+        <v>19.13999938964844</v>
+      </c>
+      <c r="C5888">
+        <v>4151.27978515625</v>
+      </c>
+      <c r="D5888">
+        <v>0.2781697003500779</v>
+      </c>
+      <c r="E5888">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5889" spans="1:5">
+      <c r="A5889" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B5889">
+        <v>17.95000076293945</v>
+      </c>
+      <c r="C5889">
+        <v>4205.4501953125</v>
+      </c>
+      <c r="D5889">
+        <v>0.2524105507617649</v>
+      </c>
+      <c r="E5889">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5890" spans="1:5">
+      <c r="A5890" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B5890">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="C5890">
+        <v>4205.52001953125</v>
+      </c>
+      <c r="D5890">
+        <v>0.2449066836334547</v>
+      </c>
+      <c r="E5890">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5891" spans="1:5">
+      <c r="A5891" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B5891">
+        <v>17.94000053405762</v>
+      </c>
+      <c r="C5891">
+        <v>4179.830078125</v>
+      </c>
+      <c r="D5891">
+        <v>0.2626134715965296</v>
+      </c>
+      <c r="E5891">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5892" spans="1:5">
+      <c r="A5892" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B5892">
+        <v>15.64999961853027</v>
+      </c>
+      <c r="C5892">
+        <v>4221.02001953125</v>
+      </c>
+      <c r="D5892">
+        <v>0.2516879517028395</v>
+      </c>
+      <c r="E5892">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5893" spans="1:5">
+      <c r="A5893" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B5893">
+        <v>14.60000038146973</v>
+      </c>
+      <c r="C5893">
+        <v>4282.3701171875</v>
+      </c>
+      <c r="D5893">
+        <v>0.2356101175171551</v>
+      </c>
+      <c r="E5893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5894" spans="1:5">
+      <c r="A5894" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B5894">
+        <v>14.72999954223633</v>
+      </c>
+      <c r="C5894">
+        <v>4273.7900390625</v>
+      </c>
+      <c r="D5894">
+        <v>0.252759198795529</v>
+      </c>
+      <c r="E5894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5895" spans="1:5">
+      <c r="A5895" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B5895">
+        <v>13.96000003814697</v>
+      </c>
+      <c r="C5895">
+        <v>4283.85009765625</v>
+      </c>
+      <c r="D5895">
+        <v>0.2495675242852624</v>
+      </c>
+      <c r="E5895">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5896" spans="1:5">
+      <c r="A5896" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B5896">
+        <v>13.9399995803833</v>
+      </c>
+      <c r="C5896">
+        <v>4267.52001953125</v>
+      </c>
+      <c r="D5896">
+        <v>0.25295024039801</v>
+      </c>
+      <c r="E5896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5897" spans="1:5">
+      <c r="A5897" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B5897">
+        <v>13.64999961853027</v>
+      </c>
+      <c r="C5897">
+        <v>4293.93017578125</v>
+      </c>
+      <c r="D5897">
+        <v>0.2484576645653402</v>
+      </c>
+      <c r="E5897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5898" spans="1:5">
+      <c r="A5898" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B5898">
+        <v>13.82999992370605</v>
+      </c>
+      <c r="C5898">
+        <v>4298.85986328125</v>
+      </c>
+      <c r="D5898">
+        <v>0.2504059204469753</v>
+      </c>
+      <c r="E5898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5899" spans="1:5">
+      <c r="A5899" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B5899">
+        <v>15.01000022888184</v>
+      </c>
+      <c r="C5899">
+        <v>4338.93017578125</v>
+      </c>
+      <c r="D5899">
+        <v>0.2493931834660514</v>
+      </c>
+      <c r="E5899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5900" spans="1:5">
+      <c r="A5900" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B5900">
+        <v>14.60999965667725</v>
+      </c>
+      <c r="C5900">
+        <v>4369.009765625</v>
+      </c>
+      <c r="D5900">
+        <v>0.2437006383293554</v>
+      </c>
+      <c r="E5900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5901" spans="1:5">
+      <c r="A5901" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B5901">
+        <v>13.88000011444092</v>
+      </c>
+      <c r="C5901">
+        <v>4372.58984375</v>
+      </c>
+      <c r="D5901">
+        <v>0.2421929089507345</v>
+      </c>
+      <c r="E5901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5902" spans="1:5">
+      <c r="A5902" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B5902">
+        <v>14.5</v>
+      </c>
+      <c r="C5902">
+        <v>4425.83984375</v>
+      </c>
+      <c r="D5902">
+        <v>0.2366534202989369</v>
+      </c>
+      <c r="E5902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5903" spans="1:5">
+      <c r="A5903" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B5903">
+        <v>13.53999996185303</v>
+      </c>
+      <c r="C5903">
+        <v>4409.58984375</v>
+      </c>
+      <c r="D5903">
+        <v>0.2443401721213088</v>
+      </c>
+      <c r="E5903">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5904" spans="1:5">
+      <c r="A5904" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B5904">
+        <v>13.88000011444092</v>
+      </c>
+      <c r="C5904">
+        <v>4388.7099609375</v>
+      </c>
+      <c r="D5904">
+        <v>0.2471022169589538</v>
+      </c>
+      <c r="E5904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5905" spans="1:5">
+      <c r="A5905" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B5905">
+        <v>13.19999980926514</v>
+      </c>
+      <c r="C5905">
+        <v>4365.68994140625</v>
+      </c>
+      <c r="D5905">
+        <v>0.2517197030779674</v>
+      </c>
+      <c r="E5905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5906" spans="1:5">
+      <c r="A5906" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B5906">
+        <v>12.90999984741211</v>
+      </c>
+      <c r="C5906">
+        <v>4381.89013671875</v>
+      </c>
+      <c r="D5906">
+        <v>0.2432694447394288</v>
+      </c>
+      <c r="E5906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5907" spans="1:5">
+      <c r="A5907" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B5907">
+        <v>13.4399995803833</v>
+      </c>
+      <c r="C5907">
+        <v>4348.330078125</v>
+      </c>
+      <c r="D5907">
+        <v>0.2577931542505766</v>
+      </c>
+      <c r="E5907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5908" spans="1:5">
+      <c r="A5908" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B5908">
+        <v>14.25</v>
+      </c>
+      <c r="C5908">
+        <v>4328.81982421875</v>
+      </c>
+      <c r="D5908">
+        <v>0.2654488116359479</v>
+      </c>
+      <c r="E5908">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5909" spans="1:5">
+      <c r="A5909" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B5909">
+        <v>13.73999977111816</v>
+      </c>
+      <c r="C5909">
+        <v>4378.41015625</v>
+      </c>
+      <c r="D5909">
+        <v>0.252251370137384</v>
+      </c>
+      <c r="E5909">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5910" spans="1:5">
+      <c r="A5910" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B5910">
+        <v>13.43000030517578</v>
+      </c>
+      <c r="C5910">
+        <v>4376.85986328125</v>
+      </c>
+      <c r="D5910">
+        <v>0.2475793493591842</v>
+      </c>
+      <c r="E5910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5911" spans="1:5">
+      <c r="A5911" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B5911">
+        <v>13.53999996185303</v>
+      </c>
+      <c r="C5911">
+        <v>4396.43994140625</v>
+      </c>
+      <c r="D5911">
+        <v>0.2453462157380756</v>
+      </c>
+      <c r="E5911">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5912" spans="1:5">
+      <c r="A5912" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B5912">
+        <v>13.59000015258789</v>
+      </c>
+      <c r="C5912">
+        <v>4450.3798828125</v>
+      </c>
+      <c r="D5912">
+        <v>0.2378740491122927</v>
+      </c>
+      <c r="E5912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5913" spans="1:5">
+      <c r="A5913" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B5913">
+        <v>13.56999969482422</v>
+      </c>
+      <c r="C5913">
+        <v>4455.58984375</v>
+      </c>
+      <c r="D5913">
+        <v>0.2427131342213213</v>
+      </c>
+      <c r="E5913">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5914" spans="1:5">
+      <c r="A5914" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B5914">
+        <v>14.18000030517578</v>
+      </c>
+      <c r="C5914">
+        <v>4446.81982421875</v>
+      </c>
+      <c r="D5914">
+        <v>0.251948619794672</v>
+      </c>
+      <c r="E5914">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5915" spans="1:5">
+      <c r="A5915" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B5915">
+        <v>15.4399995803833</v>
+      </c>
+      <c r="C5915">
+        <v>4411.58984375</v>
+      </c>
+      <c r="D5915">
+        <v>0.2632294240933195</v>
+      </c>
+      <c r="E5915">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5916" spans="1:5">
+      <c r="A5916" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B5916">
+        <v>14.82999992370605</v>
+      </c>
+      <c r="C5916">
+        <v>4398.9501953125</v>
+      </c>
+      <c r="D5916">
+        <v>0.2677979365193888</v>
+      </c>
+      <c r="E5916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5917" spans="1:5">
+      <c r="A5917" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B5917">
+        <v>15.06999969482422</v>
+      </c>
+      <c r="C5917">
+        <v>4409.52978515625</v>
+      </c>
+      <c r="D5917">
+        <v>0.2776668784992377</v>
+      </c>
+      <c r="E5917">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5918" spans="1:5">
+      <c r="A5918" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B5918">
+        <v>14.84000015258789</v>
+      </c>
+      <c r="C5918">
+        <v>4439.259765625</v>
+      </c>
+      <c r="D5918">
+        <v>0.2579890193193632</v>
+      </c>
+      <c r="E5918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5919" spans="1:5">
+      <c r="A5919" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B5919">
+        <v>13.53999996185303</v>
+      </c>
+      <c r="C5919">
+        <v>4472.16015625</v>
+      </c>
+      <c r="D5919">
+        <v>0.2556236586940211</v>
+      </c>
+      <c r="E5919">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5920" spans="1:5">
+      <c r="A5920" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B5920">
+        <v>13.60999965667725</v>
+      </c>
+      <c r="C5920">
+        <v>4510.0400390625</v>
+      </c>
+      <c r="D5920">
+        <v>0.248596501598755</v>
+      </c>
+      <c r="E5920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5921" spans="1:5">
+      <c r="A5921" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B5921">
+        <v>13.34000015258789</v>
+      </c>
+      <c r="C5921">
+        <v>4505.419921875</v>
+      </c>
+      <c r="D5921">
+        <v>0.2578628171364784</v>
+      </c>
+      <c r="E5921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5922" spans="1:5">
+      <c r="A5922" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B5922">
+        <v>13.47999954223633</v>
+      </c>
+      <c r="C5922">
+        <v>4522.7900390625</v>
+      </c>
+      <c r="D5922">
+        <v>0.2355802438906951</v>
+      </c>
+      <c r="E5922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5923" spans="1:5">
+      <c r="A5923" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B5923">
+        <v>13.30000019073486</v>
+      </c>
+      <c r="C5923">
+        <v>4554.97998046875</v>
+      </c>
+      <c r="D5923">
+        <v>0.2172588831399013</v>
+      </c>
+      <c r="E5923">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5924" spans="1:5">
+      <c r="A5924" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B5924">
+        <v>13.76000022888184</v>
+      </c>
+      <c r="C5924">
+        <v>4565.72021484375</v>
+      </c>
+      <c r="D5924">
+        <v>0.2057243416060689</v>
+      </c>
+      <c r="E5924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5925" spans="1:5">
+      <c r="A5925" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B5925">
+        <v>13.98999977111816</v>
+      </c>
+      <c r="C5925">
+        <v>4534.8701171875</v>
+      </c>
+      <c r="D5925">
+        <v>0.2270274588814497</v>
+      </c>
+      <c r="E5925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5926" spans="1:5">
+      <c r="A5926" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B5926">
+        <v>13.60000038146973</v>
+      </c>
+      <c r="C5926">
+        <v>4536.33984375</v>
+      </c>
+      <c r="D5926">
+        <v>0.2247186995986405</v>
+      </c>
+      <c r="E5926">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5927" spans="1:5">
+      <c r="A5927" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B5927">
+        <v>13.90999984741211</v>
+      </c>
+      <c r="C5927">
+        <v>4554.64013671875</v>
+      </c>
+      <c r="D5927">
+        <v>0.1915606326523764</v>
+      </c>
+      <c r="E5927">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5928" spans="1:5">
+      <c r="A5928" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B5928">
+        <v>13.85999965667725</v>
+      </c>
+      <c r="C5928">
+        <v>4567.4599609375</v>
+      </c>
+      <c r="D5928">
+        <v>0.1821056475633617</v>
+      </c>
+      <c r="E5928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5929" spans="1:5">
+      <c r="A5929" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B5929">
+        <v>13.1899995803833</v>
+      </c>
+      <c r="C5929">
+        <v>4566.75</v>
+      </c>
+      <c r="D5929">
+        <v>0.1954015651516396</v>
+      </c>
+      <c r="E5929">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5930" spans="1:5">
+      <c r="A5930" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B5930">
+        <v>14.40999984741211</v>
+      </c>
+      <c r="C5930">
+        <v>4537.41015625</v>
+      </c>
+      <c r="D5930">
+        <v>0.2041098007278037</v>
+      </c>
+      <c r="E5930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5931" spans="1:5">
+      <c r="A5931" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B5931">
+        <v>13.32999992370605</v>
+      </c>
+      <c r="C5931">
+        <v>4582.22998046875</v>
+      </c>
+      <c r="D5931">
+        <v>0.1864179590676321</v>
+      </c>
+      <c r="E5931">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5932" spans="1:5">
+      <c r="A5932" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B5932">
+        <v>13.63000011444092</v>
+      </c>
+      <c r="C5932">
+        <v>4588.9599609375</v>
+      </c>
+      <c r="D5932">
+        <v>0.2033880991978243</v>
+      </c>
+      <c r="E5932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5933" spans="1:5">
+      <c r="A5933" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B5933">
+        <v>13.93000030517578</v>
+      </c>
+      <c r="C5933">
+        <v>4576.72998046875</v>
+      </c>
+      <c r="D5933">
+        <v>0.1900811712784068</v>
+      </c>
+      <c r="E5933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5934" spans="1:5">
+      <c r="A5934" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B5934">
+        <v>16.09000015258789</v>
+      </c>
+      <c r="C5934">
+        <v>4513.39013671875</v>
+      </c>
+      <c r="D5934">
+        <v>0.1845995796146081</v>
+      </c>
+      <c r="E5934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5935" spans="1:5">
+      <c r="A5935" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B5935">
+        <v>15.92000007629395</v>
+      </c>
+      <c r="C5935">
+        <v>4501.89013671875</v>
+      </c>
+      <c r="D5935">
+        <v>0.1520339058973819</v>
+      </c>
+      <c r="E5935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5936" spans="1:5">
+      <c r="A5936" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B5936">
+        <v>17.10000038146973</v>
+      </c>
+      <c r="C5936">
+        <v>4478.02978515625</v>
+      </c>
+      <c r="D5936">
+        <v>0.1701641205080577</v>
+      </c>
+      <c r="E5936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5937" spans="1:5">
+      <c r="A5937" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B5937">
+        <v>15.77000045776367</v>
+      </c>
+      <c r="C5937">
+        <v>4518.43994140625</v>
+      </c>
+      <c r="D5937">
+        <v>0.1507290275903916</v>
+      </c>
+      <c r="E5937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5938" spans="1:5">
+      <c r="A5938" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B5938">
+        <v>15.98999977111816</v>
+      </c>
+      <c r="C5938">
+        <v>4499.3798828125</v>
+      </c>
+      <c r="D5938">
+        <v>0.1822318179697072</v>
+      </c>
+      <c r="E5938">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5939" spans="1:5">
+      <c r="A5939" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B5939">
+        <v>15.96000003814697</v>
+      </c>
+      <c r="C5939">
+        <v>4467.7099609375</v>
+      </c>
+      <c r="D5939">
+        <v>0.1961743718763218</v>
+      </c>
+      <c r="E5939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5940" spans="1:5">
+      <c r="A5940" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B5940">
+        <v>15.85000038146973</v>
+      </c>
+      <c r="C5940">
+        <v>4468.830078125</v>
+      </c>
+      <c r="D5940">
+        <v>0.1959260126894579</v>
+      </c>
+      <c r="E5940">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5941" spans="1:5">
+      <c r="A5941" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B5941">
+        <v>14.84000015258789</v>
+      </c>
+      <c r="C5941">
+        <v>4464.0498046875</v>
+      </c>
+      <c r="D5941">
+        <v>0.2173766901244688</v>
+      </c>
+      <c r="E5941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5942" spans="1:5">
+      <c r="A5942" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B5942">
+        <v>14.81999969482422</v>
+      </c>
+      <c r="C5942">
+        <v>4489.72021484375</v>
+      </c>
+      <c r="D5942">
+        <v>0.2150445239107958</v>
+      </c>
+      <c r="E5942">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5943" spans="1:5">
+      <c r="A5943" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B5943">
+        <v>16.45999908447266</v>
+      </c>
+      <c r="C5943">
+        <v>4437.85986328125</v>
+      </c>
+      <c r="D5943">
+        <v>0.2490750915116149</v>
+      </c>
+      <c r="E5943">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5944" spans="1:5">
+      <c r="A5944" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B5944">
+        <v>16.78000068664551</v>
+      </c>
+      <c r="C5944">
+        <v>4404.330078125</v>
+      </c>
+      <c r="D5944">
+        <v>0.2610884973372706</v>
+      </c>
+      <c r="E5944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5945" spans="1:5">
+      <c r="A5945" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B5945">
+        <v>17.88999938964844</v>
+      </c>
+      <c r="C5945">
+        <v>4370.35986328125</v>
+      </c>
+      <c r="D5945">
+        <v>0.283246729203976</v>
+      </c>
+      <c r="E5945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5946" spans="1:5">
+      <c r="A5946" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B5946">
+        <v>17.29999923706055</v>
+      </c>
+      <c r="C5946">
+        <v>4369.7099609375</v>
+      </c>
+      <c r="D5946">
+        <v>0.2808905321456771</v>
+      </c>
+      <c r="E5946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5947" spans="1:5">
+      <c r="A5947" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B5947">
+        <v>17.1299991607666</v>
+      </c>
+      <c r="C5947">
+        <v>4399.77001953125</v>
+      </c>
+      <c r="D5947">
+        <v>0.2775327057333541</v>
+      </c>
+      <c r="E5947">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5948" spans="1:5">
+      <c r="A5948" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B5948">
+        <v>16.96999931335449</v>
+      </c>
+      <c r="C5948">
+        <v>4387.5498046875</v>
+      </c>
+      <c r="D5948">
+        <v>0.2696471572282277</v>
+      </c>
+      <c r="E5948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5949" spans="1:5">
+      <c r="A5949" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B5949">
+        <v>15.97999954223633</v>
+      </c>
+      <c r="C5949">
+        <v>4436.009765625</v>
+      </c>
+      <c r="D5949">
+        <v>0.2701978041041072</v>
+      </c>
+      <c r="E5949">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5950" spans="1:5">
+      <c r="A5950" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B5950">
+        <v>17.20000076293945</v>
+      </c>
+      <c r="C5950">
+        <v>4376.31005859375</v>
+      </c>
+      <c r="D5950">
+        <v>0.2834647839268665</v>
+      </c>
+      <c r="E5950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5951" spans="1:5">
+      <c r="A5951" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B5951">
+        <v>15.68000030517578</v>
+      </c>
+      <c r="C5951">
+        <v>4405.7099609375</v>
+      </c>
+      <c r="D5951">
+        <v>0.2769337642667641</v>
+      </c>
+      <c r="E5951">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5952" spans="1:5">
+      <c r="A5952" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B5952">
+        <v>15.07999992370605</v>
+      </c>
+      <c r="C5952">
+        <v>4433.31005859375</v>
+      </c>
+      <c r="D5952">
+        <v>0.2614006468916128</v>
+      </c>
+      <c r="E5952">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5953" spans="1:5">
+      <c r="A5953" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B5953">
+        <v>14.44999980926514</v>
+      </c>
+      <c r="C5953">
+        <v>4497.6298828125</v>
+      </c>
+      <c r="D5953">
+        <v>0.2433126127845547</v>
+      </c>
+      <c r="E5953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5954" spans="1:5">
+      <c r="A5954" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B5954">
+        <v>13.88000011444092</v>
+      </c>
+      <c r="C5954">
+        <v>4514.8701171875</v>
+      </c>
+      <c r="D5954">
+        <v>0.2510658680614212</v>
+      </c>
+      <c r="E5954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5955" spans="1:5">
+      <c r="A5955" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B5955">
+        <v>13.56999969482422</v>
+      </c>
+      <c r="C5955">
+        <v>4507.66015625</v>
+      </c>
+      <c r="D5955">
+        <v>0.226563224407064</v>
+      </c>
+      <c r="E5955">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5956" spans="1:5">
+      <c r="A5956" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B5956">
+        <v>13.09000015258789</v>
+      </c>
+      <c r="C5956">
+        <v>4515.77001953125</v>
+      </c>
+      <c r="D5956">
+        <v>0.2223983507450074</v>
+      </c>
+      <c r="E5956">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5957" spans="1:5">
+      <c r="A5957" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B5957">
+        <v>14.01000022888184</v>
+      </c>
+      <c r="C5957">
+        <v>4496.830078125</v>
+      </c>
+      <c r="D5957">
+        <v>0.223842142272964</v>
+      </c>
+      <c r="E5957">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5958" spans="1:5">
+      <c r="A5958" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B5958">
+        <v>14.44999980926514</v>
+      </c>
+      <c r="C5958">
+        <v>4465.47998046875</v>
+      </c>
+      <c r="D5958">
+        <v>0.2111620577251514</v>
+      </c>
+      <c r="E5958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5959" spans="1:5">
+      <c r="A5959" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B5959">
+        <v>14.39999961853027</v>
+      </c>
+      <c r="C5959">
+        <v>4451.14013671875</v>
+      </c>
+      <c r="D5959">
+        <v>0.2291344771545651</v>
+      </c>
+      <c r="E5959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5960" spans="1:5">
+      <c r="A5960" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B5960">
+        <v>13.84000015258789</v>
+      </c>
+      <c r="C5960">
+        <v>4457.490234375</v>
+      </c>
+      <c r="D5960">
+        <v>0.2328731484706877</v>
+      </c>
+      <c r="E5960">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5961" spans="1:5">
+      <c r="A5961" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B5961">
+        <v>13.80000019073486</v>
+      </c>
+      <c r="C5961">
+        <v>4487.4599609375</v>
+      </c>
+      <c r="D5961">
+        <v>0.2377001535746641</v>
+      </c>
+      <c r="E5961">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5962" spans="1:5">
+      <c r="A5962" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B5962">
+        <v>14.22999954223633</v>
+      </c>
+      <c r="C5962">
+        <v>4461.89990234375</v>
+      </c>
+      <c r="D5962">
+        <v>0.2541204168846673</v>
+      </c>
+      <c r="E5962">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5963" spans="1:5">
+      <c r="A5963" s="2">
+        <v>45182</v>
+      </c>
+      <c r="B5963">
+        <v>13.47999954223633</v>
+      </c>
+      <c r="C5963">
+        <v>4467.43994140625</v>
+      </c>
+      <c r="D5963">
+        <v>0.2593387025501466</v>
+      </c>
+      <c r="E5963">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5964" spans="1:5">
+      <c r="A5964" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B5964">
+        <v>12.81999969482422</v>
+      </c>
+      <c r="C5964">
+        <v>4505.10009765625</v>
+      </c>
+      <c r="D5964">
+        <v>0.2503806178869543</v>
+      </c>
+      <c r="E5964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5965" spans="1:5">
+      <c r="A5965" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B5965">
+        <v>13.78999996185303</v>
+      </c>
+      <c r="C5965">
+        <v>4450.31982421875</v>
+      </c>
+      <c r="D5965">
+        <v>0.2661067744977511</v>
+      </c>
+      <c r="E5965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5966" spans="1:5">
+      <c r="A5966" s="2">
+        <v>45187</v>
+      </c>
+      <c r="B5966">
+        <v>14</v>
+      </c>
+      <c r="C5966">
+        <v>4453.52978515625</v>
+      </c>
+      <c r="D5966">
+        <v>0.2615296263091875</v>
+      </c>
+      <c r="E5966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5967" spans="1:5">
+      <c r="A5967" s="2">
+        <v>45188</v>
+      </c>
+      <c r="B5967">
+        <v>14.10999965667725</v>
+      </c>
+      <c r="C5967">
+        <v>4443.9501953125</v>
+      </c>
+      <c r="D5967">
+        <v>0.2857120097217842</v>
+      </c>
+      <c r="E5967">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5968" spans="1:5">
+      <c r="A5968" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B5968">
+        <v>15.14000034332275</v>
+      </c>
+      <c r="C5968">
+        <v>4402.2001953125</v>
+      </c>
+      <c r="D5968">
+        <v>0.2953862958707837</v>
+      </c>
+      <c r="E5968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5969" spans="1:5">
+      <c r="A5969" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B5969">
+        <v>17.54000091552734</v>
+      </c>
+      <c r="C5969">
+        <v>4330</v>
+      </c>
+      <c r="D5969">
+        <v>0.3206858716440531</v>
+      </c>
+      <c r="E5969">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5970" spans="1:5">
+      <c r="A5970" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B5970">
+        <v>17.20000076293945</v>
+      </c>
+      <c r="C5970">
+        <v>4320.06005859375</v>
+      </c>
+      <c r="D5970">
+        <v>0.3270487210882462</v>
+      </c>
+      <c r="E5970">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5971" spans="1:5">
+      <c r="A5971" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B5971">
+        <v>16.89999961853027</v>
+      </c>
+      <c r="C5971">
+        <v>4337.43994140625</v>
+      </c>
+      <c r="D5971">
+        <v>0.3192712390087354</v>
+      </c>
+      <c r="E5971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5972" spans="1:5">
+      <c r="A5972" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B5972">
+        <v>18.94000053405762</v>
+      </c>
+      <c r="C5972">
+        <v>4273.52978515625</v>
+      </c>
+      <c r="D5972">
+        <v>0.3444085816702542</v>
+      </c>
+      <c r="E5972">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5973" spans="1:5">
+      <c r="A5973" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B5973">
+        <v>18.21999931335449</v>
+      </c>
+      <c r="C5973">
+        <v>4274.509765625</v>
+      </c>
+      <c r="D5973">
+        <v>0.3424159111813352</v>
+      </c>
+      <c r="E5973">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5974" spans="1:5">
+      <c r="A5974" s="2">
+        <v>45197</v>
+      </c>
+      <c r="B5974">
+        <v>17.34000015258789</v>
+      </c>
+      <c r="C5974">
+        <v>4299.7001953125</v>
+      </c>
+      <c r="D5974">
+        <v>0.3402050651696509</v>
+      </c>
+      <c r="E5974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5975" spans="1:5">
+      <c r="A5975" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B5975">
+        <v>17.52000045776367</v>
+      </c>
+      <c r="C5975">
+        <v>4288.0498046875</v>
+      </c>
+      <c r="D5975">
+        <v>0.33131616003141</v>
+      </c>
+      <c r="E5975">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5976" spans="1:5">
+      <c r="A5976" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B5976">
+        <v>17.61000061035156</v>
+      </c>
+      <c r="C5976">
+        <v>4288.39013671875</v>
+      </c>
+      <c r="D5976">
+        <v>0.3313947325303614</v>
+      </c>
+      <c r="E5976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5977" spans="1:5">
+      <c r="A5977" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B5977">
+        <v>19.78000068664551</v>
+      </c>
+      <c r="C5977">
+        <v>4229.4501953125</v>
+      </c>
+      <c r="D5977">
+        <v>0.3476787001117767</v>
+      </c>
+      <c r="E5977">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5978" spans="1:5">
+      <c r="A5978" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B5978">
+        <v>18.57999992370605</v>
+      </c>
+      <c r="C5978">
+        <v>4263.75</v>
+      </c>
+      <c r="D5978">
+        <v>0.3488290411536206</v>
+      </c>
+      <c r="E5978">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5979" spans="1:5">
+      <c r="A5979" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B5979">
+        <v>18.48999977111816</v>
+      </c>
+      <c r="C5979">
+        <v>4258.18994140625</v>
+      </c>
+      <c r="D5979">
+        <v>0.337643463486551</v>
+      </c>
+      <c r="E5979">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5980" spans="1:5">
+      <c r="A5980" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B5980">
+        <v>17.45000076293945</v>
+      </c>
+      <c r="C5980">
+        <v>4308.5</v>
+      </c>
+      <c r="D5980">
+        <v>0.3348334415254729</v>
+      </c>
+      <c r="E5980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5981" spans="1:5">
+      <c r="A5981" s="2">
+        <v>45208</v>
+      </c>
+      <c r="B5981">
+        <v>17.70000076293945</v>
+      </c>
+      <c r="C5981">
+        <v>4335.66015625</v>
+      </c>
+      <c r="D5981">
+        <v>0.3359072967730368</v>
+      </c>
+      <c r="E5981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5982" spans="1:5">
+      <c r="A5982" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B5982">
+        <v>17.03000068664551</v>
+      </c>
+      <c r="C5982">
+        <v>4358.240234375</v>
+      </c>
+      <c r="D5982">
+        <v>0.3262347860262909</v>
+      </c>
+      <c r="E5982">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5983" spans="1:5">
+      <c r="A5983" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B5983">
+        <v>16.09000015258789</v>
+      </c>
+      <c r="C5983">
+        <v>4376.9501953125</v>
+      </c>
+      <c r="D5983">
+        <v>0.3285574488336337</v>
+      </c>
+      <c r="E5983">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5984" spans="1:5">
+      <c r="A5984" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B5984">
+        <v>16.69000053405762</v>
+      </c>
+      <c r="C5984">
+        <v>4349.60986328125</v>
+      </c>
+      <c r="D5984">
+        <v>0.3472128034112255</v>
+      </c>
+      <c r="E5984">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5985" spans="1:5">
+      <c r="A5985" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B5985">
+        <v>19.31999969482422</v>
+      </c>
+      <c r="C5985">
+        <v>4327.77978515625</v>
+      </c>
+      <c r="D5985">
+        <v>0.3437050992221514</v>
+      </c>
+      <c r="E5985">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5986" spans="1:5">
+      <c r="A5986" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B5986">
+        <v>17.20999908447266</v>
+      </c>
+      <c r="C5986">
+        <v>4373.6298828125</v>
+      </c>
+      <c r="D5986">
+        <v>0.335840107962382</v>
+      </c>
+      <c r="E5986">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5987" spans="1:5">
+      <c r="A5987" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B5987">
+        <v>17.8799991607666</v>
+      </c>
+      <c r="C5987">
+        <v>4373.2001953125</v>
+      </c>
+      <c r="D5987">
+        <v>0.3357426950417326</v>
+      </c>
+      <c r="E5987">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5988" spans="1:5">
+      <c r="A5988" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B5988">
+        <v>19.21999931335449</v>
+      </c>
+      <c r="C5988">
+        <v>4314.60009765625</v>
+      </c>
+      <c r="D5988">
+        <v>0.359261528098692</v>
+      </c>
+      <c r="E5988">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5989" spans="1:5">
+      <c r="A5989" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B5989">
+        <v>21.39999961853027</v>
+      </c>
+      <c r="C5989">
+        <v>4278</v>
+      </c>
+      <c r="D5989">
+        <v>0.3683917672904979</v>
+      </c>
+      <c r="E5989">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5990" spans="1:5">
+      <c r="A5990" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B5990">
+        <v>21.70999908447266</v>
+      </c>
+      <c r="C5990">
+        <v>4224.16015625</v>
+      </c>
+      <c r="D5990">
+        <v>0.3851747989846355</v>
+      </c>
+      <c r="E5990">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5991" spans="1:5">
+      <c r="A5991" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B5991">
+        <v>20.3700008392334</v>
+      </c>
+      <c r="C5991">
+        <v>4217.0400390625</v>
+      </c>
+      <c r="D5991">
+        <v>0.3747604642529877</v>
+      </c>
+      <c r="E5991">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5992" spans="1:5">
+      <c r="A5992" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B5992">
+        <v>18.96999931335449</v>
+      </c>
+      <c r="C5992">
+        <v>4247.68017578125</v>
+      </c>
+      <c r="D5992">
+        <v>0.3677724364482498</v>
+      </c>
+      <c r="E5992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5993" spans="1:5">
+      <c r="A5993" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B5993">
+        <v>20.19000053405762</v>
+      </c>
+      <c r="C5993">
+        <v>4186.77001953125</v>
+      </c>
+      <c r="D5993">
+        <v>0.3872555908475183</v>
+      </c>
+      <c r="E5993">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
